--- a/deuChatbot/research_result/table_to_json(1500_200).xlsx
+++ b/deuChatbot/research_result/table_to_json(1500_200).xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F401"/>
+  <dimension ref="A1:F501"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
       <selection activeCell="E306" sqref="E306"/>
@@ -27533,6 +27533,6780 @@
         </is>
       </c>
     </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 실기시험의 구성, 준비물, 주제, 화지 크기 및 시험 시간을 모두 올바르게 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다. 각 항목이 명확하게 정리되어 있어 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 포인트에 직접적으로 관련이 있으며, 실기시험에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러우며, 읽기 쉽습니다. 자연스러운 표현이 사용되어 유창성이 높습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 항목이 잘 연결되어 있어 전체적으로 일관된 구조를 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이나 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성 및 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있어 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C402" t="n">
+        <v>0.8376423103847566</v>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인 모집단위에서 기초디자인과 사고의 전환이라는 두 가지 종목으로 구성되어 있습니다.
+1. **기초디자인**:
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨을 통해 결정합니다. 예시로는 '잠자리와 저울'과 같은 주제가 있습니다. 주제A에는 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지 등이 포함되어 있으며, 주제B에는 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음 등이 있습니다. 제공된 사물과 이미지는 표현하지 않아야 하며, 제공된 사물을 모두 1회 이상 표현해야 합니다.
+   - **화지크기**: 켄트지3절로 사용됩니다.
+   - **시간**: 5시간 동안 진행됩니다.
+2. **사고의 전환**:
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨을 통해 결정합니다. 예시로는 '콜라병과 계절'과 같은 주제가 있습니다. 주제A에는 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼 등이 포함되어 있으며, 주제B에는 바이러스, 자유, 여행, 계절, 꿈 등이 있습니다.
+   - **화지크기**: 켄트지2절로 사용됩니다.
+   - **시간**: 5시간 동안 진행됩니다.
+이와 같이 디자인조형학과의 실기시험은 창의적 사고력과 표현 능력을 평가하는 중요한 부분입니다. 준비할 때는 주제에 대한 깊은 이해와 다양한 표현 방법을 연습해보세요.</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보가 모두 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 포인트에 직접적으로 관련되어 있으며, 모든 중요한 정보를 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C403" t="n">
+        <v>0.8463654154044239</v>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목은 '기초디자인'과 '사고의 전환'입니다.
+준비물은 다음과 같습니다:
+- 볼펜
+- 연필
+- 색연필
+- 수채물감 등 표현에 필요한 도구
+실기주제는 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨합니다. 예시로 잠자리와 저울, 콜라병과 계절 등의 조합이 있습니다.
+화지크기는 다음과 같습니다:
+- 기초디자인: 켄트지3절
+- 사고의 전환: 켄트지2절
+시간은 각 실기종목 모두 5시간입니다.</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 대회 목록과 관련된 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 대회에 대한 정보가 충돌 없이 잘 정리되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 경기지도학과 모집종목별 인정대회에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 대회에 대한 정보가 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C404" t="n">
+        <v>0.9191253012022979</v>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에 대한 정보는 다음과 같습니다.
+배드민턴(남)의 경우:
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회 (국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)의 경우:
+-춘계한국고등학교축구연맹전
+-추계한국고등학교축구연맹전
+-대한축구협회장배전국고등학교축구대회
+-문화체육관광부장관기전국고등학교축구대회
+-문화체육관광부장관배전국고등학교축구대회
+-백운기전국고등학교축구대회
+-전국고등축구리그(권역별고교축구리그)
+-전국고등축구리그왕중왕전
+-무학기전국고등학교축구대회
+-청룡기전국고등학교축구대회
+-백록기전국고등학교축구대회
+-금강대기전국고등학교축구대회
+-대통령금배전국고등학교축구대회
+-금석배전국고등학생축구대회
+-부산MBC전국고등학생축구대회
+-K리그 U18 챔피언십
+-K리그 U18 챔피언십왕중왕전
+이러한 대회들에서 입상자들은 경기지도학과 모집에 인정받을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 주제B의 내용이 원본 텍스트와 다릅니다. 원본 텍스트에서는 주제B가 "악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음"으로 명시되어 있지만, 생성된 응답에서는 "콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼"로 잘못 기재되어 있습니다. 이로 인해 사실성이 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 주제B의 내용이 다르기 때문에, 주제A와 주제B의 연결 주제를 추첨하는 과정에서도 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 기초디자인 실기시험의 주제와 관련된 내용을 다루고 있으나, 주제B의 잘못된 정보로 인해 전체적인 관련성이 약간 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 주제B의 잘못된 정보가 포함되어 있어 약간의 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답의 구조는 논리적이지만, 주제B의 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 주제A와 주제B의 연결 주제를 추첨하는 과정이 명확하게 설명되지 않았습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 주제B의 내용이 원본 텍스트와 다르기 때문에 정확성이 낮습니다. 주제A는 정확하지만, 주제B의 오류로 인해 전체적인 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서의 품질이 혼합되어 있습니다. 일부는 잘 작성되었지만, 주제B의 오류로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 대체로 일치하지만, 주제B의 잘못된 정보로 인해 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 주제B의 잘못된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C405" t="n">
+        <v>0.7622994988356938</v>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B를 각각 선정하여 연결된 주제를 추첨합니다. 예시로 주제들 중 일부를 나열하면 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+당일에는 이들 중에서 각 1개씩을 추첨하여 연결된 주제를 만드는 과정이 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 학생부 교과 전형에서 출결 점수가 반영되지 않는다는 사실과 상반되는 내용을 포함하고 있습니다. 나군 실기/실적 전형에 대한 정보는 제공되지만, 질문의 핵심인 학생부 교과 전형에 대한 정보는 잘못된 것입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 원본 텍스트는 출결 점수가 반영되지 않는다고 명확히 언급하고 있지만, 생성된 응답은 출결 점수가 반영된다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 학생부 교과 전형에 대한 질문에 대한 직접적인 답변이 아니며, 나군 실기/실적 전형에 대한 정보로 주제를 벗어나 있습니다. 그러나 출결 점수에 대한 정보는 관련이 있지만, 질문의 핵심과는 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 일관성이 떨어져서 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와의 논리적 연결이 부족합니다. 출결 점수에 대한 정보는 있지만, 학생부 교과 전형과의 관련성이 떨어져서 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 학생부 교과 전형에 대한 잘못된 정보를 포함하고 있으며, 원본 텍스트의 사실과 완전히 반대되는 내용을 담고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 출결 점수에 대한 정보를 제공하지만, 질문의 맥락과는 맞지 않아서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 일관성이 부족하여 전체적인 이해가 어렵습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C406" t="n">
+        <v>0.6186658403740413</v>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 나군 실기/실적(경기실적우수자전형)에서는 출결 상황이 반영됩니다. 결석일수에 따라 반영점수가 달라집니다.
+- 0~2일 결석일수인 경우, 반영점수는 120입니다.
+- 3~6일 결석일수인 경우, 반영점수는 90입니다.
+- 7~12일 결석일수인 경우, 반영점수는 60입니다.
+- 13~20일 결석일수인 경우, 반영점수는 30입니다.
+- 21일 이상 결석일수인 경우, 반영점수는 0입니다.
+따라서 출결 점수가 학생부교과 전형에서 중요한 요소 중 하나로 작용합니다.</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 모집 인원이 0명이라고 잘못된 정보를 제공하고 있습니다. 원본 텍스트에서는 17명을 모집한다고 명시되어 있어, 사실과 완전히 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본에서는 모집 인원이 17명인 반면, 생성된 응답에서는 0명으로 언급되어 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 주제와 관련이 있으며, 인문사회과학대학의 국어국문학과의 모집 전형에 대한 정보를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, "모집인원이 0명입니다"라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 문장 구조는 일관되지만, 내용의 일관성이 부족하여 전체적으로는 다소 비논리적으로 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다르며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 매우 낮은 점수를 받았지만, 관련성은 높고 유창성도 괜찮습니다. 그러나 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C407" t="n">
+        <v>0.7352772942143875</v>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>2024년 인문사회과학대학의 국어국문학과에서 가군 일반 학생 전형으로는 모집인원이 0명입니다.</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 모집 인원에 대한 정보를 부정확하게 전달하고 있습니다. 원문에서는 "총 28명의 신입생을 선발합니다"라고 명확히 언급하고 있지만, 생성된 응답은 이 정보를 부정하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문에서 제공된 정보와 일치하지 않으며, 이는 일관성을 결여한 것입니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 질문에 대한 답변을 제공하지 않고, 정보가 없다는 점을 강조하고 있습니다. 그러나 원문에서 명확한 정보를 제공하고 있기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장을 가지고 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정확한 정보를 왜곡하고 있으며, 이는 정확성 점수에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 관련성, 정확성 모두에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와 맥락을 잘 반영하지 못하고 있으며, 정보의 부재를 강조하는 방식이 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C408" t="n">
+        <v>0.5741458417086639</v>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 인문사회과학대학의 영어영문학과에 대한 다군 일반 학생 전형의 모집인원이 직접적으로 언급되어 있지 않습니다. 다른 계열이나 단과대학에서의 모집인원만 기재되어 있습니다.
+따라서, 정확한 답변을 드리기 위해서는 "다군" 항목 내에 "일반 학생" 카테고리가 있는 인문사회과학대학의 영어영문학과에 대한 정보를 확인해야 합니다. 만약 해당 정보가 없다면, 공식 홈페이지 (https://ipsi. deu. ac. kr/main. do)에서 최신 정보를 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트에서 제공된 정보인 "총 22명의 신입생을 선발합니다"라는 사실을 완전히 무시하고 있으며, 관련된 정보를 제공하지 않고 있습니다. 따라서 사실성 점수는 1입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있으며, 원본의 내용을 반영하지 않고 있습니다. 따라서 일관성 점수는 1입니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 간호학과의 모집 인원에 대한 질문에 대한 답변이 아닙니다. 따라서 관련성 점수는 1입니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 괜찮지만, 한국어가 아닌 중국어로 작성되어 있어 한국어 사용자에게는 이해하기 어려울 수 있습니다. 따라서 유창성 점수는 3입니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와의 연결이 부족하고, 논리적인 흐름이 약합니다. 따라서 일관성 점수는 2입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 정확한 정보를 제공하지 않습니다. 따라서 정확성 점수는 1입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 모든 품질 차원에서 매우 낮은 점수를 받으며, 원본 텍스트와의 관련성이 전혀 없습니다. 따라서 다차원 품질 점수는 1입니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다. 따라서 의미 적합성 점수는 1입니다.
+9. Understandability Score (1-5): 2
+   - 설명: 생성된 응답은 한국어가 아닌 중국어로 작성되어 있어 한국어 사용자에게는 이해하기 어려운 부분이 있습니다. 따라서 이해 가능성 점수는 2입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 2
+}</t>
+        </is>
+      </c>
+      <c r="C409" t="n">
+        <v>0.4499058678476928</v>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有提到关于医疗保健生活大学护理学专业的具体招生名额。根据您提供的上下文，没有直接涉及护理学专业的招生情况。如果您需要了解护理学专业具体的招生人数，请访问以下网站以获取最新和详细的信息：https://ipsi. deu. ac. kr/main. do</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 영어 등급에 따른 점수를 올바르게 나열하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 제공된 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 수능 영어 등급에 따른 점수에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, "이 데이터는 수능 영어 점수를 등급으로 변환하는 기준을 나타냅니다." 부분이 약간 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C410" t="n">
+        <v>0.7696948411078187</v>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>以下是根据提供的数据，将韩语翻译成中文后的回答：
+수능 영어 등급에 따른 점수는 다음과 같습니다:
+- 등급 1: 139점
+- 등급 2: 131점
+- 등급 3: 123점
+- 등급 4: 115점
+- 등급 5: 107점
+- 등급 6: 99점
+- 등급 7: 91점
+- 등급 8: 83점
+- 등급 9: 75점
+이 데이터는 수능 영어 점수를 등급으로 변환하는 기준을 나타냅니다.</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 예술고 학생이 나군의 농어촌학생전형에 지원할 수 있다고 잘못된 정보를 제공하고 있습니다. 원문에서는 예술고 학생이 해당 전형에 지원할 수 없다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문은 예술고 학생이 농어촌학생전형에 지원할 수 없다고 명시하고 있지만, 생성된 응답은 지원 가능성을 언급하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 전체적으로 관련성이 떨어집니다. 원문에서의 핵심 정보는 예술고 학생의 지원 불가능성입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 잘못된 정보로 인해 논리적 흐름이 약간 손상되었습니다. 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 크게 다릅니다. 예술고 학생이 농어촌학생전형에 지원할 수 없다는 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없습니다. 예술고 학생의 지원 가능성에 대한 잘못된 주장을 하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C411" t="n">
+        <v>0.6788997913766712</v>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생은 나군의 학생부종합 전형으로 지원 가능합니다. 그러나 특정 전형(예: 농어촌학생전형)에 지원하려면 해당 전형의 지원 자격을 충족해야 합니다. 예술고 학생이 농어촌학생전형에 지원하려면, 일반적으로는 재직 경력이나 농업 관련 경력을 갖추어야 하며, 이와 관련된 증빙 서류를 제출해야 합니다.
+따라서, 예술고 학생이 나군의 농어촌학생전형으로 지원하기 위해서는 다음과 같은 절차가 필요합니다:
+1. 재직 경력 또는 농업 관련 경력을 갖추어야 합니다.
+2. 해당 경력을 증명하는 서류를 제출해야 합니다.
+만약 자세한 정보가 필요하다면, 해당 대학의 입학처 웹사이트(https://ipsi. deu. ac. kr/main. do)를 참조하시거나 직접 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 기록과 배점에 대한 정보가 모두 잘못되었습니다. 원본 텍스트의 기록은 218~221 cm이고 배점은 275점인데, 생성된 응답에서는 202~205cm와 175점으로 잘못 기재되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 완전히 일치하지 않으며, 서로 상충하는 정보를 제공합니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 주제와 관련이 있으며, 레저스포츠학과 여자 제자리 멀리뛰기에 대한 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 다만, 내용의 정확성에 문제가 있어 점수를 약간 낮추었습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 연결되어 있으며, 문장 간의 흐름이 자연스럽습니다. 그러나 내용의 정확성 문제로 인해 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 1
+   - 제공된 정보가 원본 텍스트와 전혀 일치하지 않으므로 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 사실성과 정확성이 매우 낮고 일관성도 부족하지만, 관련성과 유창성은 어느 정도 유지되고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 의미적으로는 관련된 내용을 다루고 있으나, 제공된 정보가 잘못되어 있어 적절성 점수는 중간 정도로 평가됩니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C412" t="n">
+        <v>0.8941186030454378</v>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 202~205cm이며, 이 기록에 대한 배점은 175점입니다.</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경기지도학과의 출결 반영 비율이 12%라는 사실을 정확하게 반영하고 있습니다. 그러나 추가된 정보인 학생부교과와 서류(경기실적)의 비율은 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 출결 반영 비율과 일치하지만, 추가된 비율 정보는 원본 텍스트와 일치하지 않거나 관련이 없는 정보입니다. 따라서 일관성 점수가 낮습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 출결 반영 비율에 대한 정보를 직접적으로 다루고 있습니다. 추가된 정보도 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르며 읽기 쉽습니다. 다만, 추가된 정보가 원본 텍스트와의 연결이 약해 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 추가된 비율 정보가 원본 텍스트와의 연결이 약해 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 출결 반영 비율에 대한 정보는 정확하지만, 추가된 비율 정보는 원본 텍스트에 포함되어 있지 않으므로 정확성 점수가 다소 낮아집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이지만, 원본 텍스트와의 일관성 및 정확성에서 약간의 문제가 있어 점수가 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 원본 텍스트의 맥락과 잘 맞습니다. 그러나 추가된 정보가 원본 텍스트와의 연결이 약해 약간의 부적절함이 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보가 원본 텍스트와의 연결이 약해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C413" t="n">
+        <v>0.7454428761433911</v>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과의 출결 반영 비율은 12%입니다.
+출결 반영 비율은 다음과 같습니다:
+- 학생부교과: 18%
+- 출결: 12%
+- 서류(경기실적): 70%
+이 정보는 "나군 실기/실적(경기실적우수자전형) 전형요소 반영비율" 섹션에서 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 물리치료학과의 모집 인원에 대한 잘못된 정보를 포함하고 있습니다. 원문에서는 4명을 모집한다고 명시되어 있지만, 생성된 응답에서는 일반 학생 모집 인원이 0명이라고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문은 4명을 모집한다고 명시하고 있으나, 생성된 응답은 일반 학생 모집 인원이 0명이라고 주장하여 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 물리치료학과의 모집 인원에 대한 정보를 제공하지만, 잘못된 정보로 인해 원문과의 관련성이 떨어집니다. 원문에서의 핵심 정보인 4명 모집에 대한 언급이 없기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있으나, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 원문과의 연결이 약해져 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 크게 다릅니다. 모집 인원에 대한 정보가 잘못되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 여러 차원에서 매우 낮은 점수를 받습니다. 사실성, 일관성, 정확성 모두에서 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와 맥락에서 벗어난 내용을 포함하고 있어 의미적으로 적절하지 않습니다. 원문의 핵심 정보가 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C414" t="n">
+        <v>0.7797926592158132</v>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 일반 학생을 모집하지 않습니다. 정원 내 모집 인원은 4명으로 설정되어 있지만, 일반 학생 모집 인원은 0명입니다.
+따라서 물리치료학과에 대한 가군 일반 학생 모집 인원은 **0명**입니다.</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 날짜 정보를 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보도 원본의 맥락과 잘 맞아떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 실기고사 일정에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 이해하기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C415" t="n">
+        <v>0.523320151457711</v>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024년 1월 17일(수)에 있습니다.
+대기실 및 입실시간 안내는 2024년 1월 12일(금) 오후 2시 이후에 입학안내 홈페이지에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저 학력 기준이 없다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 수능 최저 기준이 없다는 점에서 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 수능 최저 기준에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 연결되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C416" t="n">
+        <v>0.4585043004570508</v>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 경우, 수능 최저기준이 없습니다. 따라서 해당 학과에 지원하려는 학생들은 수능 점수를 요구하지 않는다는 것을 의미합니다.
+만약 위 정보에서 응용화학과가 정확한 학과인지 확인하고 싶으시다면, 제공된 데이터 중에서 응용화학과의 관련 정보를 찾아보시거나, "https://ipsi.deu.ac.kr/main.do" 링크를 참조해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 학과를 정확하게 나열하고 있으며, 추가적인 정보도 포함되어 있습니다. 따라서 사실성 점수는 5입니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 일치합니다. 따라서 일관성 점수는 5입니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 모든 주요 포인트를 다루고 있습니다. 따라서 관련성 점수는 5입니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다. 따라서 유창성 점수는 5입니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다. 따라서 일관성 점수는 5입니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다. 따라서 정확성 점수는 5입니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다. 따라서 다차원 품질 점수는 5입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다. 따라서 의미 적합성 점수는 5입니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉽습니다. 따라서 이해 가능성 점수는 5입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C417" t="n">
+        <v>0.7598978852214371</v>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>2024학년도에 동의대학교에서 신설되는 학과로는 "심리학과"와 "스마트항만물류학과", "창업투자경영학과", "라이프융합학부(스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)", "경기지도학과"가 있습니다. 이와 함께 새로운 학과로 "라이프융합학부"도 신설되며, 이는 세 개의 전공으로 구성됩니다.
+따라서 2024학년도에 신설되는 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부(스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과
+위와 같이 동의대학교에서 2024학년도에 신설되는 학과들이 있습니다.</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 전형요소 반영비율에 대한 명확한 정보를 제공하지 않고, 오히려 정보가 없다고 주장하고 있습니다. 이는 원본 텍스트의 사실과 상충합니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 완전히 일치하지 않으며, 정보가 없다고 하여 원본의 내용을 부정하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 질문에 대한 직접적인 답변을 제공하지 않으며, 관련 정보가 없다는 내용으로 주제를 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 문법적으로는 비교적 잘 작성되었으나, 내용의 부적절함으로 인해 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 3
+   - 응답은 일관된 구조를 가지고 있으나, 원본 텍스트와의 관련성이 떨어져서 전체적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 전형요소 반영비율에 대한 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 모두 낮은 점수를 기록하고 있으며, 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 문장은 이해할 수 있으나, 정보의 부재로 인해 질문에 대한 명확한 답변이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C418" t="n">
+        <v>0.6322390210393282</v>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)에 대한 전형요소 반영비율에 대한 명확한 데이터가 없습니다. 더 자세한 내용을 확인하려면 공식 홈페이지를 참조하거나 관련 부서에 문의해보시는 것이 좋습니다. "https://ipsi.deu.ac.kr/main.do" 링크를 통해 동의대학교의 공식 웹사이트로 이동하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 학과에 대한 정보를 잘못 전달하고 있습니다. 원본 텍스트에서는 의료·보건·생활대학, 공과대학, ICT융합공과대학에서 가산점을 적용한다고 명시되어 있지만, 생성된 응답에서는 상경대학의 여러 학과와 간호학과, 임상병리학과를 포함하고 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 원본 텍스트의 모집단위와 생성된 응답의 학과 목록이 서로 다르기 때문에 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 가산점과 관련된 정보를 제공하고 있지만, 원본 텍스트에서 언급된 모집단위와는 다른 학과를 포함하고 있어 약간의 관련성 부족이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 학과에 대한 설명이 명확하게 연결되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다르게 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 불일치로 인해 전반적인 품질이 낮습니다. 사실성, 일관성, 정확성에서 모두 부족한 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트와의 불일치로 인해 일부 내용이 부적절하게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으며, 정보 전달이 명확합니다. 그러나 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C419" t="n">
+        <v>0.7677180421512805</v>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 수능 가산점을 적용하는 학과는 어디인지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서 수능 가산점을 적용하는 학과들은 다음과 같습니다:
+1. 상경대학의 회계학과, 경영정보학과, e비즈니스학과, 국제관광경영학과, 호텔·컨벤션경영학과, 외식경영학과
+2. 의료보건생활대학의 간호학과와 임상병리학과
+이들 학과에서는 수능 점수에 가산점을 적용하여 총점 계산을 합니다.</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 성적을 100% 반영한다고 명시된 원문과는 다르게 구체적인 점수와 평균, 표준 편차를 제시하고 있습니다. 이는 원문에서 제공된 정보와 일치하지 않으며, 원문에 포함된 중요한 세부사항을 왜곡하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 언급된 수능 성적 반영 방식과 일치하지 않으며, 추가적인 세부정보를 제공하지만 이는 원문과 모순됩니다. 원문은 수능 성적을 100% 반영한다고만 언급하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 수능 성적 반영에 대한 정보를 제공하지만, 원문에서 요구하는 구체적인 반영 방법에 대한 정보는 포함되어 있지 않습니다. 따라서 관련성은 있지만, 원문에서 요구하는 핵심 정보와는 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 표현이 다소 복잡할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 점수를 나열하고 있지만, 이들 간의 논리적 연결이 부족하여 일관된 흐름이 떨어집니다. 각 항목이 독립적으로 나열되어 있어 전체적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 다르게 구체적인 수치와 통계를 제시하고 있어 정확성이 떨어집니다. 원문은 수능 성적을 100% 반영한다고만 언급하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 일치성이 부족하며, 사실성, 일관성, 정확성 모두에서 낮은 점수를 받았습니다. 따라서 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 제공된 정보가 원문과 일치하지 않기 때문에 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C420" t="n">
+        <v>0.7028636537084491</v>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 수능 성적을 다음과 같이 반영합니다.
+1. **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**:
+   - 평균: 303.44
+   - 표준 편차: 10.34
+2. **영어 등급**:
+   - 평균: 3.88
+   - 표준 편차: 0.31
+3. **수능 4개 영역 등급**:
+   - 평균: 4.65
+   - 표준 편차: 0.21
+4. **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**:
+   - 평균: 419.33
+   - 표준 편차: 9.73
+이러한 성적은 각 모집단위별로 지원자의 경쟁력을 판단하는 데 활용됩니다.</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도 가군 실기고사 날짜에 대한 정보를 완전히 부정하고 있으며, 사실과 반대되는 내용을 포함하고 있습니다. 원본 텍스트에 명시된 날짜를 전혀 반영하지 않고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 담고 있습니다. 원본 텍스트는 실기고사 날짜를 명확히 제시하고 있지만, 생성된 응답은 그 정보를 부정하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 제공된 정보가 없다는 주장은 원본 텍스트의 핵심 정보를 무시하고 있습니다. 따라서 관련성은 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 부정확성으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 논리적 흐름이 약해집니다. 원본 정보와의 연결이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 완전히 왜곡하고 있으며, 정확성이 전혀 없습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 부정확성으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C421" t="n">
+        <v>0.6703375867795155</v>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 2024학년도 가군 실기고사 날짜에 대한 내용이 없습니다. 추가적인 자세한 정보를 얻으려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문해보시거나, 대학 입학처로 문의해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서 제외된 모집단위에 대한 정보를 잘못 전달하고 있습니다. 원문에서는 한의예과, 디자인조형학과, 체육학과, 경기지도학과가 제외된다고 명시되어 있지만, 생성된 응답은 이러한 정보를 부정하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문에서 명확히 제외된 학과가 언급되었음에도 불구하고, 생성된 응답은 이를 부정하고 새로운 전형이 추가되었다고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 새로운 전형에 대한 정보를 제공하고 있지만, 질문의 핵심인 '어떤 모집단위가 제외되었는가'에 대한 답변이 부족합니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 새로운 전형에 대한 설명이 포함되어 있지만, 질문에 대한 직접적인 답변이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 크게 다릅니다. 원문에서 명시된 제외된 학과에 대한 정보가 누락되어 있으며, 잘못된 주장을 하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 관련성, 정확성 모두에서 낮은 점수를 받았습니다. 전반적으로 질이 낮은 응답입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 새로운 전형에 대한 정보를 제공하지만, 질문의 맥락과는 맞지 않으며, 원문의 의미를 왜곡하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C422" t="n">
+        <v>0.5829309723015584</v>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 수능(일반학생전형) 전형에서는 학생부종합(평생학습자전형)이 신설되었지만, 동의대학교에서 직접적으로 제외된 모집단위는 확인되지 않았습니다. 
+신설된 전형은 "학생부종합(평생학습자전형): 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자"입니다.
+따라서, 2024학년도 나군 수능(일반학생전형)에서는 특정 모집단위가 제외된 것이 아니라 새로운 전형이 추가되었습니다. 더 자세한 정보는 https://ipsi. deu. ac. kr/main. do를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저기준이 적용되지 않는다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수능 최저기준이 적용되지 않는다는 점에서 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 내용이 일관되게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C423" t="n">
+        <v>0.8880159235233969</v>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 
+다군 전형의 경우, 수능 최저기준 항목에 "수능최저기준 없음"이라고 명시되어 있습니다.
+따라서, 2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모든 학과의 분리 정보를 올바르게 나열하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 제공된 정보가 서로 충돌하지 않고 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 학과 분리에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C424" t="n">
+        <v>0.7260375235521498</v>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 '보육·가정상담학과'를 '아동학과', '경제금융보험학과'를 '금융경영학과', '정보경영학부(경영정보학, e비즈니스학)'를 '경영정보학과, e비즈니스학과', 그리고 '기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학)'를 '기계공학과, 로봇자동화공학과, 자동차공학과'로 분리하였습니다. 이 외에도 여러 학과들이 분리되었습니다.
+만약 더 구체적인 정보가 필요하시다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원서접수 마감일이 2024년 1월 6일(토) 18시라는 사실을 정확히 반영하고 있습니다. 그러나 원서접수 시작일인 2024년 1월 3일(수)에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분은 추가적인 정보로 간주할 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원서접수 마감일에 대한 정보를 일관되게 제공하지만, 원서접수 시작일에 대한 정보는 원본 텍스트와 일치하지 않으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원서접수 마감일과 관련된 정보를 직접적으로 다루고 있으며, 추가적인 세부사항도 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 약간의 중복된 정보가 있어 완벽한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 원서접수 마감일에 대한 정확한 정보를 제공하지만, 시작일에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 추가적인 정보도 적절하게 포함되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 다만, 일부 독자에게는 약간의 혼란을 줄 수 있는 부분이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C425" t="n">
+        <v>0.6859309085069598</v>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 2024학년도 전형일정에 따르면, 원서접수(인터넷)는 2024. 01. 03.(수)부터 2024. 01. 06.(토)까지 마감되며, 마감일은 18시까지입니다.
+원서접수 관련 일정은 다음과 같습니다:
+- 원서접수(인터넷): 2024. 01. 03.(수)～2024. 01. 06.(토) 마감일 18시까지
+자세한 내용은 입학안내 홈페이지에서 확인하실 수 있습니다: [http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com](http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com)
+이 정보가 도움이 되길 바랍니다! 더 궁금한 사항이 있으시면 알려주세요.</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 전형 요소 변화에 대한 정보를 잘못 전달하고 있습니다. 원본 텍스트에서는 여러 전형의 변화가 명확히 설명되어 있지만, 생성된 응답은 변화가 없다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 전형 요소 변화가 없다고 주장하는 것은 원본의 내용과 상충합니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보로 인해 관련성이 낮습니다. 전형 요소 변화에 대한 정확한 정보가 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성이 떨어지기 때문에 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 일관되지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약해집니다. 전형 요소 변화가 없다는 주장은 원본과의 연결이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 전형 요소 변화에 대한 정보가 잘못 전달되고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 원본 텍스트와 관련이 있지만, 잘못된 정보로 인해 적절하지 않습니다. 전형 요소 변화에 대한 설명이 부정확합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬우나, 잘못된 정보로 인해 전체적인 이해도가 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C426" t="n">
+        <v>0.7430725699116968</v>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1. **학생부종합(평생학습자전형)**:
+   - 서류 반영 비율이 70%로 유지되며, 면접 비율이 30%로 유지됩니다.
+2. **학생부종합(성인학습자(정원내·외)전형)**:
+   - 서류 반영 비율이 70%로 유지되며, 면접 비율이 30%로 유지됩니다.
+3. **학생부종합(재직자전형)**:
+   - 서류 반영 비율이 70%로 유지되며, 면접 비율이 30%로 유지됩니다.
+위와 같이 전형 요소 변화는 없습니다. 모든 전형에서 서류의 중요성이 높아졌으며, 면접 비율은 동일하게 유지되었습니다.</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중이 70%라고 명시된 원문과 상충합니다. 응답에서는 실기 비중이 30%라고 잘못 언급하고 있으며, 이는 원문과 명백히 모순됩니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문에서 실기 비중이 70%라고 명시된 반면, 응답에서는 30%로 잘못 기술되어 있어 서로 상충하는 정보를 제공합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보로 인해 전체적인 관련성이 떨어집니다. 실기 비중에 대한 잘못된 해석이 포함되어 있어 주제와의 관련성이 약해집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성이 떨어지기 때문에 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 구조적으로 나누어져 있지만, 잘못된 정보로 인해 논리적인 흐름이 약해집니다. 실기 비중에 대한 잘못된 결론이 전체적인 일관성을 해칩니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 크게 다릅니다. 실기 비중이 70%라는 사실을 30%로 잘못 기술하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 품질 차원에서 모두 낮은 점수를 기록하고 있습니다. 사실성, 일관성, 정확성 모두 원문과 상충하여 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 응답의 의미는 원문과 관련이 있지만, 잘못된 정보로 인해 의미가 왜곡되었습니다. 원문에서의 의미를 제대로 전달하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C427" t="n">
+        <v>0.6768192711298462</v>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 다음과 같이 분류되어 있습니다.
+1. **레저스포츠학과, 태권도학과**에서는 실기가 수능보다 높게 반영되며, 실기는 70%, 수능은 30%의 비율로 반영됩니다.
+2. **전반적인 모집단위**에서는 실기가 수능보다 낮게 반영되며, 대부분의 경우 실기와 수능의 비중이 각각 30%와 70%입니다.
+따라서, 동의대학교 가군 실기/실적 전형에서 실기의 비중은 **30%**입니다.</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 세부 전공을 정확하게 나열하고 있으며, 추가적인 설명도 원본의 내용을 잘 반영하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 전공의 내용과 수를 정확히 전달하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 전공에 대한 추가적인 설명도 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 전공에 대한 설명이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C428" t="n">
+        <v>0.7951143856836901</v>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과 중 라이프융합학부는 세 가지 전공을 제공하고 있습니다. 이들 전공은 다음과 같습니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+이 세 가지 전공은 미래 융합 분야에서의 다양한 기회를 제공하며, 학생들은 이들 전공을 통해 창업과 투자, 뷰티 산업, 그리고 생활 문화 관련 지식을 습득하게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 '태권도학과'를 포함하고 있지만, 원본 텍스트에는 '태권도학과'에 대한 언급이 없고 오직 '체육학과'와 '레저스포츠학과'만 언급되어 있습니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있어 일관성이 부족합니다. '태권도학과'의 언급은 원본과 모순됩니다.
+3. Relevance Score (1-5): 4  
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 완전한 관련성을 보이지는 않습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡할 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: '태권도학과'의 언급으로 인해 정확성이 떨어집니다. 원본 텍스트의 정보와 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 잘못된 정보로 인해 전체적인 적합성이 떨어집니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 전반적으로 이해하기 쉬운 응답이지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C429" t="n">
+        <v>0.7009664126681228</v>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사는 레저스포츠학과와 태권도학과에서 진행됩니다. 이들 학과에서는 실기고사를 통해 전형을 진행합니다.
+따라서, 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+이 정보가 도움이 되었기를 바랍니다. 추가로 궁금한 점이 있으시면 언제든지 물어보세요.</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대 2024학년도 실기/실적 위주 전형에 지원 가능한 학과들을 정확하게 나열하고 있으며, 추가적인 정보도 제공하고 있습니다. 그러나 "나군 실기/실적(경기실적우수자전형)"이라는 명칭이 원문에 명시되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공된 학과 목록과 일치하지만, "나군 실기/실적(경기실적우수자전형)"이라는 추가 정보가 원문에 없기 때문에 일관성이 떨어집니다. 이로 인해 응답이 원문과 완전히 일치하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 질문한 내용과 직접적으로 관련이 있으며, 실기/실적 위주 전형에 지원 가능한 학과들을 명확하게 나열하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 중복된 표현이 있어 완벽한 유창성에는 미치지 못합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 학과에 대한 설명이 명확합니다. 그러나 "나군 실기/실적(경기실적우수자전형)"이라는 부분이 원문과의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 대부분의 정보를 정확하게 전달하고 있지만, "나군 실기/실적(경기실적우수자전형)"이라는 명칭이 원문에 없기 때문에 정확성에서 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성 등에서 좋은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 잘 맞지만, 추가된 정보가 원문에 없기 때문에 의미적으로 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 표현이 중복되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C430" t="n">
+        <v>0.7111347853766021</v>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 "나군 실기/실적(경기실적우수자전형)"은 다음과 같은 학과에 지원할 수 있습니다:
+- 디자인조형학과
+- 체육학과
+- 레저스포츠학과
+- 태권도학과
+이러한 학과들은 실기/실적 위주 전형인 "나군 실기/실적(경기실적우수자전형)"을 통해 지원할 수 있습니다. 기타 자세한 내용은 공식 홈페이지를 참조하시거나 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 전공 목록을 정확하게 반영하고 있으며, 추가적인 설명도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 제공되는 전공에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 내용이 일관되게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C431" t="n">
+        <v>0.8997342907623282</v>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부에서는 다음과 같은 전공을 제공하고 있습니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+이러한 전공들은 미래 융합 분야에서 필요한 다양한 지식과 기술을 학습할 수 있는 프로그램들입니다.</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 정확하게 반영하고 있습니다. 그러나 "마이스터고"에 대한 언급이 다소 모호하게 표현되어 있어, 농어촌학생전형에 대한 제한 사항이 명확히 전달되지 않았습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 특수목적고등학교 학생이 일반학생전형으로 지원할 수 있다는 점에서 일관성을 보이지만, 농어촌학생전형에 대한 정보가 누락되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 관련된 정보를 잘 포함하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 농어촌학생전형에 대한 언급이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 사실적으로 정확하지만, 농어촌학생전형에 대한 제한 사항이 명확히 언급되지 않아 약간의 정확성 부족이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문의 맥락에 잘 맞습니다. 그러나 농어촌학생전형에 대한 정보가 부족하여 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 전달됩니다. 다만, 일부 정보가 누락되어 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C432" t="n">
+        <v>0.8014584151941191</v>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생이더라도 동의대학교 일반학생전형(가군)으로 지원할 수 있습니다. 특수목적고등학교에 속하는 과학고, 국제고, 외국어고, 예술고, 체육고, 마이스터고 등은 모두 지원 가능합니다.
+만약 자세한 내용을 확인하고 싶으시다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 나군 전형에서 가장 많이 모집하는 학과에 대한 정보가 잘못되었습니다. 원문에서는 중어중국학과와 신소재공학과가 가장 많이 모집하는 학과로 언급되었으나, 생성된 응답에서는 인공지능학과가 가장 많이 모집한다고 잘못 기술하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않으며, 인공지능학과에 대한 정보가 추가되었지만 이는 원문에서 제공된 정보와 상충합니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있으나, 주제에서 벗어난 정보가 포함되어 있어 관련성이 떨어집니다. 원문에서 언급된 학과에 대한 정보가 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 학과에 대한 정보를 나열하고 있으나, 주제의 흐름이 다소 분산되어 있어 일관된 논리적 흐름이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 특히, 모집 인원에 대한 정보가 부정확합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 이로 인해 전체적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있으나, 잘못된 정보가 포함되어 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 정보의 정확성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C433" t="n">
+        <v>0.7033822095925859</v>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 확인해보겠습니다.
+현재 제공된 정보에서는 각 학과별로 정원 내외 모집 인원이 다르게 되어 있습니다. 공과대학, ICT융합공과대학, 예술디자인체육대학 등 다양한 단과대학에서 다수의 학과가 모집되고 있으며, 그 중에서도 가장 많은 인원을 모집하는 학과를 확인해보겠습니다.
+1. **신소재공학과**: 최대 4명 내로 모집
+2. **고분자나노공학과**: 최대 3명 내로 모집
+3. **토목공학과**: 최대 4명 내로 모집
+4. **바이오의약공학과**: 최대 4명 내로 모집
+5. **인간공학과**: 최대 3명 내로 모집
+6. **컴퓨터공학과 (교직)**: 최대 3명 내로 모집
+7. **인공지능학과**: 최대 4명 내로 모집
+8. **디지털콘텐츠학과**: 최대 1명 내로 모집
+9. **게임공학과**: 최대 3명 내로 모집
+10. **영화학과 (예체능)**: 최대 1명 내로 모집
+이 중에서 가장 많은 인원을 모집하는 학과는 **인공지능학과**로, 최대 4명 내로 모집됩니다.
+따라서, 2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 **인공지능학과**입니다.</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 특수목적고등학교 출신자가 동의대 학생부교과 농어촌학생전형으로 지원할 수 없다는 사실을 잘못 전달하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 정보를 제공하고 있습니다. 원본 텍스트는 지원이 불가능하다고 명시하고 있지만, 생성된 응답은 가능하다고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성은 있지만 신뢰할 수 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 원본 텍스트와의 관계가 명확하지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 내용을 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성 모두에서 매우 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 의미적으로는 관련된 내용을 다루고 있지만, 잘못된 정보로 인해 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C434" t="n">
+        <v>0.5897855373595453</v>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생이라면 동의대학교에서 농어촌학생전형을 통해 지원이 가능합니다. 하지만 자세한 지원 자격 및 기타 사항은 동의대학교의 공식 웹사이트를 참조하시거나 관계부서에 문의하시는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크를 참고해보세요.</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있다고 주장하지만, 원본 텍스트에서는 해당 정보가 포함되어 있지 않다고 명시하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상반된 정보를 제공하고 있습니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 구체적인 성적을 제시하고 있습니다. 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 정보가 없음을 알리고 있는데, 생성된 응답은 구체적인 성적을 제시하여 주제에서 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와의 연결이 부족하여 일관된 흐름이 없습니다. 원본 텍스트의 정보와 상충하는 내용을 포함하고 있어 논리적 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있으므로 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않습니다. 원본 텍스트는 정보가 없음을 알리는데, 생성된 응답은 구체적인 성적을 제시하여 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본 텍스트와 상충하여 혼란을 줄 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C435" t="n">
+        <v>0.5651847436068863</v>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 합격자 평균 성적은 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균이 330.11입니다.</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 없다는 사실을 정확하게 반영하고 있습니다. 그러나 "다른 단과대학이나 모집단위의 정보만이 포함되어 있습니다"라는 부분은 원문에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부분 일치하지만, "다른 단과대학이나 모집단위의 정보만이 포함되어 있습니다"라는 추가 정보는 원문에 없는 내용으로, 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 요청한 정보와 관련이 있으며, 필요한 정보를 제공하기 위해 적절한 링크를 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, "제공된 정보에는"이라는 표현이 약간 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 원문과의 일관성 문제로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보의 정확성을 잘 반영하고 있지만, 추가된 정보로 인해 약간의 부정확성이 발생했습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보여주지만, 일관성과 정확성에서 약간의 문제가 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 원문과의 의미적 일관성을 약간 해치고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하지만, 일부 표현이 다소 어색하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C436" t="n">
+        <v>0.7337980420410706</v>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 2024학년도 소프트웨어공학부에 대한 데이터가 없습니다. 다른 단과대학이나 모집단위의 정보만이 포함되어 있습니다. 더 자세한 정보를 얻기 위해서는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문하여 확인해보시거나, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 주요 정보를 포함하고 있으며, 대부분의 세부 사항이 정확합니다. 그러나 최초 합격자 등록 일정과 관련된 정보가 추가되어 있어 원본 텍스트와 약간의 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 추가된 내용(최초 합격자 등록 일정 등)으로 인해 일관성이 떨어집니다. 원본 텍스트와의 일관성이 완벽하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 질문에 직접적으로 관련된 정보를 제공합니다. 모든 주요 일정이 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 사실이 정확하지만, 원본 텍스트에 없는 추가 정보가 포함되어 있어 정확성에 약간의 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보로 인해 일부 의미가 변형될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 긴 문장으로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C437" t="n">
+        <v>0.8069330192094576</v>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+1. **최초 합격자 발표 및 등록**
+   - **일정**: 2024년 2월 2일 (금) 14:00
+   - **내용**: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능합니다. 등록장소는 학교 지정은행입니다.
+2. **최초 합격자 등록**
+   - **일정**: 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화)
+   - **시간**: 은행 마감 시간 내
+   - **내용**: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능합니다. 등록장소는 학교 지정은행입니다.
+3. **충원 합격자 발표 및 등록**
+   - **1차 충원 합격자 발표**: 2024년 2월 14일 (수) 09:00
+     - **내용**: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능합니다. 등록장소는 학교 지정은행입니다.
+   - **1차 충원 합격자 등록**: 2024년 2월 14일 (수) 09:00 ~ 16:00
+     - **내용**: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능합니다. 등록장소는 학교 지정은행입니다.
+   - **2차 충원 합격자 발표**: 2024년 2월 15일 (목) 09:00
+     - **내용**: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능합니다. 등록장소는 학교 지정은행입니다.
+   - **2차 충원 합격자 등록**: 2024년 2월 15일 (목) 09:00 ~ 16:00
+     - **내용**: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능합니다. 등록장소는 학교 지정은행입니다.
+4. **충원 합격자 3차 이후 발표 및 등록**
+   - **발표 일정**: 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지
+     - **내용**: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능합니다. 등록장소는 학교 지정은행입니다.
+   - **등록 일정**: 개별 전화 통보 시 안내
+이상의 합격자 발표 및 등록 일정을 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 면접 일정에 대한 정보를 제공하지 않았다고 주장하지만, 원본 텍스트에는 명확하게 면접 일정이 2024년 1월 20일이라고 명시되어 있습니다. 따라서 사실과 일치하지 않으며, 여러 가지 부정확한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 면접 일정에 대한 구체적인 정보를 제공하고 있지만, 생성된 응답은 그 정보를 부정하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 면접 일정에 대한 질문에 대한 답변으로 적절하지 않습니다. 원본 텍스트의 핵심 정보인 면접 일정이 무시되고, 관련 없는 정보가 포함되어 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 떨어져서 논리적인 흐름이 약해집니다. 원본 텍스트의 정보와 연결되지 않아 일관성이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 면접 일정에 대한 정확한 정보를 제공하지 않고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 내용을 포함하고 있습니다. 면접 일정에 대한 질문에 대한 적절한 답변이 아닙니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C438" t="n">
+        <v>0.5974566384355571</v>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>면접일정에 대한 정보가 제공되지 않았습니다. "나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형) 면접평가 방법" 또는 "나군 학생부종합(조기취업형계약학과전형)  - 정원외 모집단위 및 모집인원" 등에 포함된 면접일정을 확인해주세요. 만약 해당 정보가 없다면, 공식 웹사이트를 참조하거나 관계자에게 문의하시길 권장드립니다. [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 반영하고 있지만, "다른 전형 유형에서는 최저학력 기준이 없음을 확인하였습니다."라는 부분은 원문에 명시되어 있지 않은 정보입니다. 따라서 약간의 부정확성이 존재합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부분 일치하지만, "다른 전형 유형"에 대한 언급은 원문과 일치하지 않으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 언급된 주제와 관련이 있으며, 최저학력 기준에 대한 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있지만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 "다른 전형 유형"에 대한 언급이 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 원문에서 제공된 정보와 대체로 일치하지만, 추가된 정보가 정확하지 않을 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 양호한 성과를 보이지만, 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 연결되어 있지만, 추가된 정보가 원문과 일치하지 않아 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, "다른 전형 유형"에 대한 언급이 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C439" t="n">
+        <v>0.6198554025261602</v>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 한의예과의 최저학력 기준을 찾을 수 없습니다. 다른 전형 유형에서는 최저학력 기준이 없음을 확인하였습니다. 자세한 내용은 공식 웹사이트를 참조하시거나, https://ipsi. deu. ac. kr/main. do 링크를 통해 확인해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 언급하고 있으며, 특정 학과에 대한 예시를 제공하고 있습니다. 그러나 "특정 학과에서는 수능 최저 기준을 설정하고 있을 수 있습니다"라는 문장은 다소 모호하며, 사실과 일치하지 않을 수 있습니다. 따라서 완전한 정확성은 없지만, 전반적으로 사실에 부합합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 동의대학교의 수능 최저학력 기준에 대한 정보를 제공하지만, 특정 학과에서 기준이 있을 수 있다는 점에서 일관성이 떨어질 수 있습니다. 원문에서는 수능 최저학력 기준이 없다고 명확히 언급하고 있으므로, 이 부분에서 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 직접적으로 관련된 정보를 제공합니다. 수능 최저학력 기준에 대한 구체적인 내용과 추가적인 정보 제공을 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 특정 학과에 대한 언급이 원문과의 일관성을 떨어뜨리는 요소로 작용할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 동의대학교의 수능 최저학력 기준에 대한 정확한 정보를 제공하고 있지만, 특정 학과에서 기준이 있을 수 있다는 언급이 사실과 다를 수 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성, 일관성 등에서 좋은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 원문의 의미와 맥락에 적절하게 부합하며, 추가적인 정보도 제공하고 있습니다. 그러나 특정 학과에 대한 언급이 다소 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C440" t="n">
+        <v>0.5602447433838289</v>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>정시에서 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보로, 일부 학과에서는 수능 최저 기준이 없음을 확인할 수 있습니다. 예를 들어, "중어중국학과"와 "아동학과"는 수능 최저기준이 없습니다.
+하지만 모든 학과에 대해 동일한 정책을 적용하는 것은 아닙니다. 특정 학과에서는 수능 최저 기준을 설정하고 있을 수 있습니다. 따라서, 정시 모집에서 수능 최저학력기준을 확인하려면 해당 학교의 공식 웹사이트나 입학처에 직접 문의하시는 것이 가장 정확한 방법입니다.
+더 자세한 정보를 얻고자 한다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 발표 일정과 내용을 정확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 발표 일정에 대한 정보가 일치합니다. 서로 모순되는 내용이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 발표 일정에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C441" t="n">
+        <v>0.9112941916996788</v>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>충원합격자는 다음과 같은 일정에 발표됩니다.
+1. **2024년 2월 14일 (수) 09:00**: 1차 충원 합격자 발표
+2. **2024년 2월 15일 (목) 09:00**: 2차 충원 합격자 발표
+3. **2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지**: 3차 이후 충원 합격자 발표
+이 일정에 따라 각각의 합격자들이 홈페이지에서 개별적으로 조회할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 추가합격자 발표일에 대한 정보를 제공하지 않고 있으며, 원본 텍스트에 명시된 발표 일정과 관련된 내용을 완전히 무시하고 있습니다. 따라서 사실성 점수는 1입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 명확한 발표 일정을 제공하고 있지만, 생성된 응답은 그 정보를 부정하고 있습니다. 따라서 일관성 점수는 1입니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 추가합격자 발표 일정에 대한 정보를 제공하지 않고 있습니다. 따라서 관련성 점수는 1입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르며, 읽기에도 무리가 없습니다. 그러나 내용이 부적절하여 점수를 낮추지 않았습니다. 따라서 유창성 점수는 4입니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와의 연결이 부족하여 일관된 흐름이 없습니다. 원본 텍스트의 정보와 관련이 없기 때문에 점수를 낮추었습니다. 따라서 일관성 점수는 2입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 1입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 모든 면에서 매우 낮은 점수를 받았습니다. 따라서 다차원 품질 점수는 1입니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다. 따라서 의미 적합성 점수는 1입니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 혼란을 줄 수 있습니다. 따라서 이해 가능성 점수는 3입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C442" t="n">
+        <v>0.4258799405670397</v>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 추가합격자 발표일에 대한 내용이 포함되어 있지 않습니다. 추가합격자 발표 일정과 관련하여 자세한 정보를 얻으시려면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문해 보시는 것이 좋겠습니다. 해당 사이트에서 최신 공지사항을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 추가 모집에 대한 명확한 언급이 없다고 하였으나, 원문에서는 수시모집 등록자의 포기로 인한 결원에 대해 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발한다고 명시하고 있습니다. 따라서, 응답은 일부 사실을 반영하고 있으나, 원문에서의 중요한 사실을 간과하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, 원문에서 명시된 추가 모집의 조건을 명확히 반영하지 못하고 있습니다. 응답에서 언급된 정원 외 지원자 모집은 원문과 관련이 있지만, 원문에서의 추가 모집에 대한 구체적인 내용과는 일치하지 않습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 추가 모집에 대한 질문에 대해 관련된 정보를 제공하고 있으나, 원문에서의 구체적인 내용과는 다소 차이가 있습니다. 그러나 전반적으로 주제와 관련된 정보를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다. 그러나 원문과의 연결성이 부족하여 완전한 일관성을 제공하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 응답은 원문에서 제공된 정보의 일부를 반영하고 있으나, 원문에서의 중요한 사실을 누락하고 있습니다. 따라서 정확성 점수는 중간 정도로 평가됩니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 일부는 잘 반영하고 있으나, 원문과의 일관성 및 정확성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉬우며, 명확한 지침을 제공하고 있습니다. 다만, 일부 문장이 길어질 경우 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C443" t="n">
+        <v>0.5575123892357011</v>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>2024학년도에 추가 모집이 있는지 확인하기 위해 제공된 정보를 바탕으로 답변하겠습니다.
+현재 주어진 정보에서는 추가 모집에 대한 명확한 언급은 없습니다. 하지만 일부 학과나 전형에서 정원 외 지원자를 모집하고 있습니다. 예를 들어, "아동학과"와 "학생부교과(농어촌학생전형)"는 정원 외 지원자를 모집하고 있으며, 이들에 대한 추가 정보가 제공되었습니다.
+따라서, 추가 모집이 있는지 확인하려면 다음과 같은 단계를 따르시기 바랍니다:
+1. 주어진 정보 중에서 "정원외"로 표기된 학과나 전형을 확인합니다.
+2. 해당 학과나 전형의 모집인원, 지원자격, 제출서류 등을 확인합니다.
+만약 추가 모집이 있는지 확실하지 않다면, 공식 웹사이트를 참조하거나 관계자에게 문의하는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 공식 웹사이트에 접속하여 최신 정보를 확인하실 수 있습니다.
+추가로 필요한 자세한 정보나 도움이 필요하시다면 언제든지 알려주세요!</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1  
+   - 생성된 응답은 평생학습자전형에 대한 정보가 아닌 성인 학습자를 위한 입학 전형 방법에 대한 설명으로, 원본 텍스트의 내용과 크게 다릅니다. 지원 자격 서류와 평가 기준이 원본 텍스트와 일치하지 않으며, 전형의 구체적인 세부사항이 누락되어 있습니다.
+2. Consistency Score (1-5): 1  
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 정보를 제공합니다. 원본 텍스트의 모집단위, 모집인원, 제출서류 등과 관련된 정보가 전혀 포함되어 있지 않아 일관성이 없습니다.
+3. Relevance Score (1-5): 1  
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 평생학습자전형에 대한 구체적인 정보가 아닌 성인 학습자를 위한 전형에 대한 설명으로, 원본 텍스트의 핵심 내용을 다루지 않고 있습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으나, 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있으나, 원본 텍스트와의 관련성이 없기 때문에 전체적인 일관성은 낮습니다.
+6. Accuracy Score (1-5): 1  
+   - 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 원본 텍스트의 세부사항이 전혀 반영되지 않았습니다.
+7. Multidimensional Quality Score (1-5): 1  
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트와의 관계가 전혀 없기 때문에 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1  
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 주제와 관련이 없는 내용을 담고 있습니다.
+9. Understandability Score (1-5): 3  
+   - 생성된 응답은 문법적으로는 이해할 수 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 이해도는 낮습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C444" t="n">
+        <v>0.5533882300765801</v>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 성인 학습자를 대상으로 한 입학 전형 방법입니다. 이 전형에서는 지원 자격 서류와 서류 평가, 면접 평가 등을 통해 지원자의 학업역량과 전공적합성을 평가합니다.
+**지원 자격 서류**
+- 창업 및 자영업자: 사업자등록증명원 또는 폐업사실증명원(국세청 홈텍스 발급), 소득금액증명원(국세청 홈텍스 발급), 재직(경력)증명서 중 1개 이상 제출
+- 농업, 수산업 등의 1차 산업체 종사자: 국가·지방자치단체가 발급하는 공적증명서
+- 군 경력자: 주민등록초본
+**서류 평가**
+- 평가 영역: 공동체역량, 학업역량, 전공적합성
+- 각 영역별로 협업능력, 학업태도 및 성취, 열정 등을 평가합니다.
+- 평가 기준은 교사의 관찰과 평가를 포함하며, 학생 개인의 노력이 중요합니다.
+**면접 평가**
+- 개별 면접으로 진행되며, 시간은 10분 이내입니다.
+- 학업역량과 전공적합성에 대한 질문을 통해 지원자의 문제 해결 능력 등을 평가합니다.
+평생학습자전형은 성인 학습자를 위한 특별한 입학 기회를 제공하며, 다양한 서류와 면접을 통해 지원자의 역량을 종합적으로 평가합니다.</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 지원 자격을 정확하게 반영하지 않고 있습니다. 원본 텍스트는 "고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자"라고 명시하고 있지만, 생성된 응답에서는 "검정고시 출신자"와 "외국고교 졸업(예정)자"와 같은 추가적인 조건이 포함되어 있습니다. 이는 원본 텍스트의 정보와 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트의 지원 자격 조건을 변경하거나 추가하여 혼란을 초래하고 있습니다. 따라서 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가적인 정보가 포함되어 있어 주제에서 약간 벗어나 있습니다. 그러나 여전히 지원 자격에 대한 정보를 제공하고 있으므로 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 조건을 나열하고 있지만, 이들 간의 논리적 연결이 부족하여 일관된 흐름이 떨어집니다. 따라서 중간 점수를 부여합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있어 정확성 점수가 낮습니다. 원본 텍스트의 지원 자격 조건을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 원본 텍스트와 일치하지 않기 때문에 전반적인 품질이 낮습니다. 사실성, 일관성, 정확성 모두에서 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 추가된 정보가 원본의 의미를 왜곡할 수 있어 적절성 점수가 중간입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 추가된 정보로 인해 혼란을 줄 수 있습니다. 그러나 여전히 명확하게 전달되고 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C445" t="n">
+        <v>0.7176039274358433</v>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>2024학년도 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 고교 졸업(예정)자 또는 검정고시 출신자
+2. 외국고교 졸업(예정)자 (공증받은 외국고교 졸업증명서, 성적증명서 등 제출 필요)
+3. 재직 중인 자 (4대 보험 가입자 또는 창업 및 자영업자)
+또한 지원 자격 증빙 서류를 제출해야 합니다. 자세한 내용은 "평생학습자전형 ㅣ 성인학습자(정원내·외)전형 제출서류" 항목을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기고사에 대한 정보를 제공하지 않는다고 주장하지만, 원본 텍스트에는 실기고사 대기실 및 입실시간에 대한 명확한 정보가 포함되어 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 실기고사에 대한 정보를 제공하고 있지만, 생성된 응답은 이를 부정하고 있습니다. 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사에 대한 정보를 요청하는 질문에 대해 관련성이 낮습니다. 원본 텍스트의 내용을 무시하고 다른 웹사이트를 언급하고 있어 주제와의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 흐름이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 약간 떨어집니다. 원본 텍스트의 정보를 반영하지 않기 때문에 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 실기고사에 대한 정보를 제공하지 않는다고 잘못된 주장을 하고 있습니다. 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘못 이해하고 있으며, 부적절한 정보를 제공합니다. 그러나 웹사이트 링크를 제공하는 점에서 일부 적절함이 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 혼란스러울 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C446" t="n">
+        <v>0.3551474533007664</v>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서는 실기고사에 대한 내용이 없습니다. 실기고사를 위해 필요한 정보가 포함되어 있지 않아서 정확한 답변을 드릴 수 없습니다. 만약 실기고사와 관련된 정보를 원하신다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문하여 확인해 보시기 바랍니다. 해당 사이트에서 더 자세한 내용을 찾으실 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보를 제공하지 않고 있으며, 원본 텍스트의 핵심 정보를 완전히 무시하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 정보를 제공하고 있습니다. 원본 텍스트의 내용과 상충하는 정보가 포함되어 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 관련이 없으며, 실기고사 대기실 및 입실시간에 대한 질문에 대한 답변이 아닙니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 평가에는 영향을 미치지 않습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 일관성은 낮습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 전혀 일치하지 않으며, 맥락에 맞지 않는 정보가 포함되어 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 이해도는 낮습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C447" t="n">
+        <v>0.2873356662863754</v>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>提供的信息中没有提到体育学部的具体实机考试地点。如果需要了解体育学部的实机考试地点，建议访问以下网站以获取最新信息：https://ipsi. deu. ac. kr/main. do
+一般情况下，实机考试会在各个大学的校园内进行，请参考该网站获取确切的考试地点和其他相关信息。如果有其他问题或需要进一步的帮助，请告诉我！</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수시 충원합격자 발표가 전화로 개별 연락을 하지 않는다는 사실과 상반되는 내용을 포함하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있어 일관성이 없습니다. 원본에서는 전화 통보가 이루어지지 않는다고 명시하고 있지만, 생성된 응답에서는 전화 통보가 이루어진다고 주장하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 떨어집니다. 원본의 핵심 내용과는 다르게 해석되고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 문장 구조가 비교적 일관되지만, 원본과의 내용 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 정보를 제공하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성 모두에서 매우 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본의 의미와 맥락에 맞지 않는 내용을 포함하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C448" t="n">
+        <v>0.6344451708882286</v>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>2024년 입학전형 일정에 따르면, 수시 충원 합격자 발표 후에는 개별 전화 통보를 통해 안내를 드립니다. 그러나 이와 관련하여 자세한 내용은 "https://ipsi. deu. ac. kr/main. do" 웹사이트에서 확인해 보시는 것이 좋습니다. 해당 사이트에서는 최신 정보와 안내를 제공하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수시모집 결과에 대한 정보가 포함되어 있지 않다는 점을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 수시모집 결과에 대한 정보를 요청하는 내용이 적절하게 포함되어 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창한 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트의 흐름을 잘 따르고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C449" t="n">
+        <v>0.8872590591216092</v>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 2023학년도 경찰행정학과의 수시모집 결과에 대한 내용이 없습니다. 더 자세한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5):
+   - 점수: 1
+   - 설명: 생성된 응답은 정시모집 지원자가 수능에 응시하지 않으면 지원할 수 없다는 원문과 상반된 내용을 담고 있습니다. 2024학년도에 수능을 응시하지 않아도 지원이 가능한 전형이 있다고 주장하지만, 이는 원문에서 명시된 사실과 모순됩니다.
+2. Consistency Score (1-5):
+   - 점수: 1
+   - 설명: 생성된 응답은 원문과 일관성이 전혀 없습니다. 원문은 수능에 응시하지 않으면 지원할 수 없다고 명확히 언급하고 있는데, 생성된 응답은 이를 반박하는 내용을 포함하고 있습니다.
+3. Relevance Score (1-5):
+   - 점수: 3
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성은 있지만 신뢰할 수 없는 정보입니다.
+4. Fluency Score (1-5):
+   - 점수: 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 신뢰성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5):
+   - 점수: 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5):
+   - 점수: 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 반대되는 정보를 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5):
+   - 점수: 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다.
+8. Semantic Appropriateness Score (1-5):
+   - 점수: 2
+   - 설명: 생성된 응답은 원문과 의미적으로 상충하는 내용을 담고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5):
+   - 점수: 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C450" t="n">
+        <v>0.5653741854746032</v>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>2024학년도에는 정시모집에서 수능을 응시하지 않아도 지원이 가능한 전형이 있습니다. 예를 들어, "학생부종합(성인학습자(정원내)전형)"은 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자에게 지원할 수 있는 전형입니다. 따라서, 수능을 응시하지 않아도 해당 조건을 충족하면 지원이 가능합니다.
+더 자세한 내용은 https://ipsi. deu. ac. kr/main. do를 방문하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지나도 정시 지원이 가능하다는 원문과 상반된 내용을 담고 있습니다. 원문에서는 모든 고등학교 졸업생이 정시 지원이 가능하다고 명시하고 있지만, 생성된 응답은 일반적으로 불가능하다고 주장하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문은 정시 지원이 가능하다고 명확히 언급하고 있으나, 생성된 응답은 이를 부정하고 있습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성은 있지만 신뢰할 수 없는 정보입니다. 원문에서 제시한 사실과는 다르기 때문에 완전한 관련성을 갖추지 못합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원문과의 불일치로 인해 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 반대되는 내용을 담고 있습니다. 따라서 정확성 점수는 최하점입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원문과의 불일치로 인해 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않습니다. 원문과의 불일치로 인해 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 구조로 되어 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C451" t="n">
+        <v>0.6431078797589204</v>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>10년 전에 고등학교를 졸업했다면, 일반적으로 정시 모집에 지원하는 것은 불가능합니다. 대학입시는 고등학교 졸업 후의 수능 성적을 기준으로 하기 때문에, 10년이 지난 후에는 해당 학교에서 요구하는 입학 자격 조건을 충족시키기가 어렵습니다.
+만약 특별한 상황이라면, 각 대학의 특별전형(예: 평생학습자전형, 성인학습자전형 등)에 지원해 볼 수 있습니다. 그러나 이 경우에도 특정 기준이 있으며, 10년 전 졸업 후에도 학력 증명서와 같은 서류를 제출해야 합니다.
+더 자세한 정보는 해당 대학의 입시 홈페이지(https://ipsi. deu. ac. kr/main. do)를 참조하거나, 입학처에 문의해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 세부사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C452" t="n">
+        <v>0.7766657704182107</v>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집의 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024년 1월 2일 (화)
+   - 홈페이지: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 날짜: 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토), 마감일 18시까지
+   - 홈페이지: http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com
+3. **서류 제출**:
+   - 날짜: 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금), 마감일 17시까지 도착
+   - 방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **실기고사**:
+   - 날짜 및 내용은 학과별로 다릅니다.
+     - &lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과): 2024년 1월 16일 (화)
+     - &lt;나&gt;군 실기고사 (디자인조형학과, 체육학과): 2024년 1월 17일 (수)
+5. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 14시
+     - 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 2월 13일 (화), 은행마감시간 내
+     - 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 발표 및 등록: 2024년 2월 14일 (수) ~ 2월 20일 (화), 개별 전화 통보 시 안내
+     - 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행(등록금 고지서에 기재)
+이러한 일정을 참고하여 원하는 학과와 전형에 맞게 준비하시기 바랍니다. 자세한 내용은 입학안내 홈페이지를 참조하거나 https://ipsi. deu. ac. kr/main. do로 접속해 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 절차에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 관련이 깊으며, 모든 중요한 포인트를 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C453" t="n">
+        <v>0.9136236829943265</v>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024년 1월 2일 (화)
+   - 홈페이지: 입학 안내 홈페이지에서 공고
+2. **원서접수(인터넷)**:
+   - 날짜: 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토), 마감일 18시까지
+   - 홈페이지: http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com
+3. **서류 제출**:
+   - 날짜: 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금), 마감일 17시까지 도착
+   - 방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **실기고사**:
+   - 날짜 및 내용은 학과별로 다릅니다.
+     - &lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과): 2024년 1월 16일 (화)
+     - &lt;나&gt;군 실기고사 (디자인조형학과, 체육학과): 2024년 1월 17일 (수)
+5. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 14시
+     - 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+6. **충원 합격자 발표 및 등록**:
+   - 1차 충원 합격자 발표: 2024년 2월 14일 (수) 9시
+     - 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+7. **3차 이후 충원 합격자 발표 및 등록**:
+   - 날짜: 2024년 2월 15일 (목) 19시 ~ 2024년 2월 20일 (화) 18시까지
+     - 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+이 일정을 참고하여 원하는 학과에 지원하시기 바랍니다. 자세한 내용은 입학 안내 홈페이지를 확인해보세요. 필요하다면 "https://ipsi. deu. ac. kr/main. do"로 이동하여 더 많은 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에서 수능 미응시자가 지원할 수 있는 전형에 대한 잘못된 정보를 제공합니다. 원본 텍스트에 따르면, 수능 미응시자는 지원이 불가능하다고 명시되어 있습니다. 따라서 생성된 응답은 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 원본 텍스트는 수능 미응시자가 지원할 수 없다고 명시하고 있지만, 생성된 응답은 수능 미응시자가 지원 가능한 전형이 있다고 주장합니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 바탕으로 하고 있습니다. 수능 미응시자가 지원할 수 있는 전형에 대한 정보는 원본 텍스트의 핵심 내용과는 다르기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 나름의 일관성을 가지고 있지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약해집니다. 원본 텍스트와의 불일치로 인해 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 수능 미응시자가 지원할 수 있다고 잘못된 정보를 제공합니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 불일치로 인해 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성 점수는 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C454" t="n">
+        <v>0.7169432724108558</v>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 주로 실기/실적 기반의 전형입니다. 특히, &lt;나&gt;군 실기/실적(경기실적우수자전형)과 &lt;나&gt;군 실기/실적(일반학생전형)이 해당됩니다.
+- **&lt;나&gt;군 실기/실적(경기실적우수자전형)**: 이 전형은 경기에서 우수한 성적으로 입상한 학생들을 대상으로 합니다. 수능 미응시자도 지원 가능합니다.
+- **&lt;나&gt;군 실기/실적(일반학생전형)**: 이 전형은 실기와 실적을 기준으로 평가하며, 수능 미응시자도 지원이 가능합니다.
+따라서, 수능 미응시자도 지원 가능한 전형은 위의 두 가지가 주요하게 지원이 가능합니다. 그러나 각 모집단위별로 지원 자격과 조건이 다르므로, 정확한 자격 요건을 확인하기 위해서는 동의대학교의 공식 홈페이지를 참조하시거나, 입학처에 문의하시는 것이 좋습니다. https://ipsi. deu. ac. kr/main. do 링크를 통해 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 전년도 전자공학과의 충원 합격에 대한 구체적인 정보를 제공하지 않고, "제공된 데이터에는 전년도 전자공학과 관련 정보가 없습니다."라는 문구로 인해 사실과 다르게 해석될 수 있습니다. 원문에서는 36명까지 충원 합격이 이루어졌다고 명시되어 있으나, 생성된 응답에서는 이 정보를 누락하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부분 일치하지만, 충원 합격에 대한 구체적인 수치를 제공하지 않아 일관성이 떨어집니다. 원문에서는 36명이라는 구체적인 숫자가 제시되었으나, 생성된 응답에서는 이를 언급하지 않고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 언급된 웹사이트 링크를 포함하고 있어 관련성이 높습니다. 그러나 전년도 전자공학과의 충원 합격에 대한 구체적인 정보가 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, "제공된 데이터에는 전년도 전자공학과 관련 정보가 없습니다."라는 문장은 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결되어 있으며, 웹사이트를 방문하라는 제안이 자연스럽게 이어집니다. 그러나 원문에서 제공된 구체적인 정보가 누락되어 있어 완전한 일관성을 갖추지 못했습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공된 구체적인 사실(36명 충원 합격)을 누락하고 있어 정확성이 떨어집니다. 원문에 명시된 사실을 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 일부는 잘 작성되었으나, 중요한 정보가 누락되어 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 의미를 전달하고 있으나, 구체적인 정보가 부족하여 의미 전달이 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 정보의 부족으로 인해 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C455" t="n">
+        <v>0.5039690417372983</v>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 데이터에는 전년도 전자공학과 관련 정보가 없습니다. "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 최신 정보를 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호가 포함되어 있지 않다고 주장하지만, 원본 텍스트에는 명확하게 전화번호가 제공되어 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 전화번호를 명시하고 있지만, 생성된 응답은 이를 부정하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 전화번호를 부정하는 내용으로 인해 관련성이 떨어집니다. 원본 텍스트의 핵심 정보를 무시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 전화번호에 대한 언급이 없다는 주장은 원본과의 연결이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있습니다. 전화번호가 명시되어 있음에도 불구하고 이를 부정하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다. 전반적으로 원본 텍스트와의 관계가 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘 전달하지 못하고 있습니다. 전화번호가 없다는 주장은 원본의 의미와 상충합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C456" t="n">
+        <v>0.6588285604974252</v>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 입학처의 전화번호가 포함되어 있지 않습니다. 필요하신 전화번호를 확인하려면 "https://ipsi. deu. ac. kr/main. do" 웹사이트로 접속해 보시기 바랍니다. 해당 페이지에서 연락처 정보를 찾을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 잘못 해석하고 있습니다. 원본에서는 전화 연락이 두절되면 해당 지원자는 등록 의사가 없는 것으로 간주된다고 명시하고 있지만, 생성된 응답에서는 "자동으로 처리되지 않는다"는 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본에서는 전화 통화가 되지 않으면 등록 포기자로 처리된다고 명시되어 있으나, 생성된 응답은 대기 상태로 두거나 다른 방법으로 연락을 시도할 수 있다고 언급하여 상충되는 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 원본의 핵심 내용을 왜곡하여 설명하고 있습니다. 전화 통화가 되지 않을 경우의 절차에 대한 추가 정보를 제공하지만, 원본의 핵심 사항을 간과하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 일관성이 떨어집니다. 정보가 잘 연결되어 있으나, 원본의 핵심 내용을 반영하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 전화 통화가 되지 않을 경우의 처리 방식에 대한 설명이 원본과 상충하여 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받습니다. 사실성, 일관성, 정확성 모두 원본과의 불일치로 인해 낮은 평가를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본의 의미와 다소 일치하지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다. 원본의 의도를 완전히 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원본과의 불일치로 인해 혼란을 줄 수 있습니다. 정보는 명확하게 전달되지만, 내용의 정확성 문제로 인해 이해에 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C457" t="n">
+        <v>0.6190366843716654</v>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화 통보 시, 전화 통화가 되지 않는 경우 해당 합격자는 자동으로 처리되지 않습니다. 이 경우에는 일반적으로 다음과 같은 절차를 따릅니다:
+1. **개별 전화 통보 시 안내**: 합격자 발표 및 등록금 납부 일정이 공고되어 있으며, 합격자에게 개별 전화 통보가 이루어집니다.
+2. **전화 통화 실패 시 처리**: 만약 전화 통화가 되지 않는 경우, 학교에서는 해당 합격자를 대기 상태로 두거나 다른 방법으로 연락을 시도할 수 있습니다.
+이러한 상황에서 합격자는 주어진 일정 내에 홈페이지를 통해 개별 조회를 해야 하며, 고지서를 출력하거나 입학관리팀에서 수령하여 등록금 납부와 등록 절차를 진행해야 합니다. 만약 이 과정에서도 연락이 되지 않는 경우, 학교에서는 이를 확인하고 적절한 조치를 취할 것입니다.
+따라서, 전화 통화가 되지 않더라도 합격자는 주어진 일정 내에 홈페이지를 통해 정보를 확인하고 등록 절차를 진행해야 합니다. 자세한 내용은 입학안내 홈페이지에서 확인하거나 학교 입학관리팀으로 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 농어촌학생전형에 대한 구체적인 정보를 제공하지 않고, 해당 전형에 대한 내용이 없다고 주장하고 있습니다. 그러나 원본 텍스트에는 제출해야 할 서류에 대한 상세한 정보가 포함되어 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 내용을 포함하고 있습니다. 원본 텍스트는 농어촌학생전형에 대한 구체적인 정보를 제공하고 있지만, 생성된 응답은 그러한 정보가 없다고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 정보가 부족하여 관련성이 낮습니다. 원본 텍스트의 내용을 직접적으로 다루지 않고, 웹사이트를 참조하라는 제안만 하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 원본 텍스트의 내용을 반영하지 않기 때문에 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 관련성이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 잘못 해석하고 있으며, 중요한 정보를 누락하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘못 이해하고 있으며, 적절한 의미 전달이 이루어지지 않고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원본 텍스트와의 관련성이 부족하여 전체적인 이해가 어렵습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C458" t="n">
+        <v>0.4993807288102241</v>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 현재 제공된 정보에서는 '농어촌학생전형'에 대한 내용이 없습니다. 만약 농어촌학생전형의 지원 자격과 제출 서류가 궁금하다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해보시거나, 대학 입학처와 직접 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 제출해야 할 서류 목록을 정확하게 나열하고 있으며, 원본 텍스트의 주요 내용을 잘 반영하고 있습니다. 그러나 "이러한 서류들은 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급할 수 있습니다."라는 추가 정보는 원본 텍스트에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 서류 목록을 제시하고 있습니다. 그러나 추가된 발급처 정보는 원본 텍스트와의 일관성을 약간 떨어뜨립니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 서류 목록과 발급처 정보가 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 서류 목록은 정확하지만, 발급처에 대한 정보는 원본 텍스트에 포함되어 있지 않아 정확성에서 약간의 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 높은 품질을 보이지만, 원본 텍스트와의 일관성 및 정확성에서 약간의 차이가 있어 4점으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 발급처 정보는 원본의 맥락과는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C459" t="n">
+        <v>0.8460316553439501</v>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원 시 제출해야 할 서류는 다음과 같습니다:
+- 지원자 본인의 주민등록초본 1부
+- 초등학교 학교생활기록부 1부
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+이러한 서류들은 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교의 정시 모집 전형에 대한 정보가 아닌 경기대학교에 대한 정보를 제공하고 있습니다. 이는 원본 텍스트와 완전히 다른 내용을 담고 있으며, 기회균등 전형이 존재하지 않는다는 사실을 잘못 전달하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 포함하고 있습니다. 원본 텍스트는 동의대학교에 대한 내용을 다루고 있지만, 생성된 응답은 경기대학교에 대한 내용을 다루고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 관련이 없습니다. 원본 텍스트는 동의대학교의 정시 모집 전형에 대한 정보인데, 생성된 응답은 경기대학교에 대한 정보를 제공하고 있어 주제와 관련성이 전혀 없습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 동의대학교의 기회균등 전형에 대한 정보가 아닌 경기대학교에 대한 잘못된 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 모든 평가 기준에서 낮은 점수를 받았기 때문에, 전체적인 품질도 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 전혀 다른 내용을 담고 있습니다.
+9. Understandability Score (1-5): 4
+   - 문장은 명확하게 작성되어 있어 이해하기는 쉽지만, 내용의 부적절함으로 인해 전체적인 이해도는 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C460" t="n">
+        <v>0.645293664208572</v>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>2024학년도 경기대학교 정시모집에 대한 저소득 기회균등 전형 정보가 제공된 자료 내에서는 확인되지 않았습니다. 제공된 정보는 학생부종합전형, 실기/실적전형 등이 포함되어 있지만, 저소득 기회균등 전형은 없습니다.
+만약 정시모집에서 저소득 기회균등 전형을 선발하는지 궁금하시다면, https://ipsi. deu. ac. kr/main. do 웹사이트를 방문하여 최신 정보를 확인해보시는 것이 좋습니다. 해당 페이지에서는 정시모집의 모든 관련 정보와 전형이 자세히 설명되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않다는 원문 내용을 무시하고, 2.5 등급이 절사되지 않고 그대로 평균산출된다고 주장하고 있습니다. 이는 원문과 상충되는 정보로, 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 포함하고 있습니다. 원문에서는 절사 여부에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 2.5 등급이 절사되지 않는다고 주장하여 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 수능 최저등급과 관련된 정보를 제공하고 있지만, 원문에서 요청한 절사 여부에 대한 정보와는 관련이 적습니다. 따라서 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 원문과의 불일치로 인해 내용의 흐름이 약간 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 따라서 일관성 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상충되는 내용을 포함하고 있어 정확성이 매우 낮습니다. 원문에서 명시된 정보와 다르게 해석하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다. 전반적으로 원문과의 불일치가 많아 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 부족하여 적절하지 않습니다. 원문에서 요청한 정보와는 다른 내용을 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 쉽지만, 원문과의 불일치로 인해 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C461" t="n">
+        <v>0.7365150662191901</v>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>2.5 등급은 절사되지 않고 그대로 2.5 등급으로 평균산출됩니다.
+수능 최저등급에서 사탐(사회탐구) 2 과목의 평균산출 방식은 정확한 등급 점수를 기반으로 합니다. 따라서 2.5 등급이 나온다면, 그대로 2.5 등급을 사용하여 평균산출을 진행합니다.
+만약 특정 전형에서 사탐 2 과목의 최저등급이 3등급 이상이라면, 2.5 등급은 충분히 합격 기준을 만족할 수 있습니다. 하지만 만약 최저등급이 4등급 이상이라면, 2.5 등급은 불합격으로 처리될 것입니다.
+상세한 내용은 해당 대학의 입시 홈페이지 (https://ipsi. deu. ac. kr/main. do)를 참조하시거나 학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 발표가 총 4차로 이루어진다고 잘못 언급하고 있으며, 3차 발표 이후의 세부 사항이 누락되었습니다. 원본 텍스트에서는 3차 발표 이후에 개별 전화 통보로 진행된다고 명시되어 있지만, 생성된 응답에서는 이 부분이 불명확하게 표현되었습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본에서는 3차 발표가 끝난 후 개별 전화 통보가 이루어진다고 명시되어 있으나, 생성된 응답에서는 4차 발표가 있다고 잘못 언급하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보로 인해 일부 내용이 부적절하게 연결되어 있습니다. 그러나 발표 일정에 대한 정보는 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일정한 흐름을 가지고 있지만, 4차 발표에 대한 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 원본 텍스트와의 연결이 약해졌습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 발표 차수에 대한 정보가 부정확하며, 원본 텍스트의 사실과 일치하지 않습니다. 4차 발표에 대한 언급은 원본에 없는 내용입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 일부 일치하지만, 잘못된 정보로 인해 의미 전달이 불완전합니다. 4차 발표에 대한 언급은 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C462" t="n">
+        <v>0.7525219311139458</v>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 총 4차로 이루어집니다. 
+1. **1차 발표**: 2024년 2월 14일 (수) 오전 9시에 홈페이지에서 개별 조회 가능합니다.
+2. **1차 등록**: 2024년 2월 14일 (수) 오전 9시부터 오후 4시까지 학교 지정은행에서 등록금 납부를 완료해야 합니다.
+3. **2차 발표**: 2024년 2월 15일 (목) 오전 9시에 홈페이지에서 개별 조회 가능합니다.
+4. **2차 등록**: 2024년 2월 15일 (목) 오전 9시부터 오후 4시까지 학교 지정은행에서 등록금 납부를 완료해야 합니다.
+이후에는 3차 이후의 발표가 있으며, 이는 개별 전화 통보를 통해 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 e-비즈니스학과의 모집요강에 대한 정보와 수능 성적 평균을 제공하고 있지만, 원본 텍스트에서 언급된 수능 4개 영역 등급과 관련된 정보가 잘못되었거나 누락되었습니다. 또한, 수능 최저 기준이 없다는 정보는 원본 텍스트에 포함되어 있지 않습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일관성이 부족합니다. 원본 텍스트는 수능 4개 영역 등급이 4.6점일 경우의 합격 가능성에 대한 정보를 제공하는 반면, 생성된 응답은 모집요강에 대한 정보로 전환되어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 e-비즈니스학과에 대한 정보를 제공하지만, 질문의 핵심인 수능 성적 4.6점의 추가 합격 가능성에 대한 직접적인 답변이 부족합니다. 따라서 관련성 점수는 중간 정도로 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요합니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 포함하고 있지만, 주제 간의 연결이 명확하지 않아 일관된 흐름이 부족합니다. 특히, 수능 성적에 대한 논의가 모집요강 정보와 혼합되어 있어 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많습니다. 예를 들어, 수능 성적 평균과 관련된 정보가 잘못되었으며, 원본 텍스트의 핵심 내용을 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 이로 인해 다차원적인 품질 점수도 낮게 평가됩니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 정보를 제공하지만, 질문의 맥락과는 다소 동떨어진 내용이 포함되어 있어 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 정보가 혼합되어 있어 명확한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C463" t="n">
+        <v>0.5764590302696179</v>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>2024학년도에 e비즈니스학과의 모집요강을 확인해보겠습니다.
+e비즈니스학과는 다음과 같은 특징을 가지고 있습니다:
+- 학과 분리(학부→학과)
+- 전형 유형은 "학생부교과"
+- 사정 단계는 "일괄 합산"
+- 전형요소 반영 비율은 "서류: 60%, 면접: 40%"
+- 수능 최저 기준이 없음
+e비즈니스학과의 수능 성적 평균은 4.22이며, 표준 편차는 0.14입니다. 따라서 4.6이라는 점수는 상당히 높은 수준으로 볼 수 있습니다.
+이러한 조건을 고려할 때, 4.6의 수능 성적은 충분히 경쟁력을 갖추고 있을 것입니다. 그러나 정시 전형으로 추가 합격 가능 여부는 다음과 같은 요소들에 따라 결정됩니다:
+1. 지원자의 총 평균 점수 (국어+수학+탐구)
+2. 서류 및 면접 성적
+3. 다른 지원자들의 경쟁력
+따라서, 4.6의 수능 성적이 높은 만큼, 지원자의 총 평균 점수가 높고, 서류와 면접에서도 좋은 성적을 받았다면 추가 합격 가능성은 있습니다.
+만약 자세한 정보가 필요하다면, 해당 대학의 입시 홈페이지 (https://ipsi. deu.ac.kr/main.do)를 참조하시거나, 대학 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답에서 언급된 수능 4개 영역 등급 평균이 4.65라는 정보는 원본 텍스트의 4.53과 다르며, 이는 사실과 일치하지 않습니다. 또한, 경쟁률이 4.11이라는 정보도 원본 텍스트에 포함되어 있지 않아 사실성을 떨어뜨립니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 많습니다. 예를 들어, 수능 4개 영역 등급 평균과 경쟁률에 대한 정보가 서로 다르며, 이는 일관성을 저해합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 질문의 주제와 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 정보와는 다소 차이가 있습니다. 그러나 여전히 e비즈니스학과의 합격 가능성에 대한 논의는 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요점이 명확하게 연결되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답의 수치와 정보가 원본 텍스트와 일치하지 않기 때문에 정확성 점수가 낮습니다. 특히, 수능 4개 영역 등급 평균과 경쟁률에 대한 정보가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 일부 차별화된 정보를 제공하지만, 사실성과 일관성에서 큰 문제를 안고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제에 적합한 의미를 전달하고 있으며, 질문의 맥락에 맞는 정보를 제공합니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 언어로 작성되어 있습니다. 다만, 일부 복잡한 문장 구조가 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C464" t="n">
+        <v>0.7222652444851977</v>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 인문사회과학대학 e비즈니스학과의 수능 4개 영역 등급 평균은 4.65로, 표준 편차는 0.21입니다. 이 정보를 바탕으로 정시 등급 5.3이 동의대학교에 최초 합격 가능성 있는지 판단해보겠습니다.
+정시 등급 5.3은 평균보다 약간 높은 점수입니다. 표준 편차가 작기 때문에, 이 수준의 성적은 상대적으로 좋은 성적을 의미합니다. 그러나 최초 합격 가능성은 여러 요인에 따라 달라질 수 있습니다:
+1. **모집 인원과 지원 인원**: e비즈니스학과는 모집 인원이 많지 않으므로 경쟁률이 높을 수 있습니다.
+2. **경쟁률**: 현재의 경쟁률은 4.11입니다. 이는 지원 인원이 많은 경우, 합격 기준이 상대적으로 낮아질 수 있다는 것을 의미합니다.
+따라서 정시 등급 5.3으로 e비즈니스학과에 최초 합격 가능성은 높지만, 확실한 것은 아닙니다. 지원 인원과 모집 인원의 비율, 경쟁률 등을 고려해야 합니다. 
+더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 를 방문하여 더 많은 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 예비 38번 학생의 합격 가능성에 대한 정보를 제공하지만, 원본 텍스트에서 명시된 "예비 38번이라면 예비 합격할 가능성이 낮습니다"라는 사실을 무시하고 있습니다. 또한, 예술디자인체육대학의 수능 반영 영역에 대한 정보는 원본 텍스트와 관련이 없습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 예비 38번 학생의 합격 가능성에 대한 정보가 상충합니다. 원본 텍스트는 예비 38번의 가능성이 낮다고 명시하고 있지만, 생성된 응답은 다양한 요소를 고려해야 한다고 주장합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 예비 38번 학생의 합격 가능성에 대한 질문에 대한 답변을 시도하지만, 원본 텍스트의 핵심 내용과는 다소 벗어나 있습니다. 예술디자인체육대학의 수능 반영 영역에 대한 정보는 질문과 관련이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 언급하지만, 논리적인 흐름이 부족하여 일관성이 떨어집니다. 원본 텍스트의 주제와 관련된 정보가 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 예비 38번 학생의 합격 가능성에 대한 잘못된 정보를 제공합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 관련성, 정확성 모두에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 일부 내용이 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C465" t="n">
+        <v>0.5794783434212931</v>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>38번 학생의 성적과 전형에 대한 정보만으로는 정확한 판단이 어렵습니다. 예비합격 가능성은 수능 점수, 학생부 교과성적, 실기 및 실적 등 다양한 요소를 종합적으로 고려해야 합니다.
+특히 "예술디자인체육대학 모집단위(패션디자인학과 제외)"의 경우, 수능 반영 영역은 국어, 수학, 영어, 탐구 영역 중 상위 3개 영역을 반영하며 가산점이 없습니다. 따라서 수능 점수와 학생부 교과성적에 따라 예비합격 여부가 결정됩니다.
+만약 더 자세한 정보를 원하시면, 해당 대학의 입시 홈페이지(https://ipsi. deu. ac. kr/main. do)를 참조하거나 입시 상담을 받는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 입학 기준에 대한 정보를 제공하고 있으며, 3.44라는 점수가 합격 가능성에 미치는 영향을 설명하고 있습니다. 그러나 원본 텍스트에서 제공된 구체적인 평균 점수와 관련된 정보는 포함되어 있지 않아 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 바탕으로 하여 간호학과의 입학 기준을 설명하고 있지만, 원본 텍스트에서 언급된 평균 점수와 관련된 구체적인 수치를 직접적으로 언급하지 않아 일관성이 떨어질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 간호학과의 입학 기준에 대한 정보를 적절히 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 일부 부분에서 정보의 흐름이 다소 느슨하게 연결될 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 하여 정확한 내용을 전달하고 있지만, 구체적인 수치에 대한 언급이 부족하여 완전한 정확성에는 미치지 못합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 질문에 대한 적절한 답변을 제공합니다. 다만, 일부 세부 사항에서 더 명확한 설명이 필요할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보를 제공합니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C466" t="n">
+        <v>0.7021479977713311</v>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>3.44이라는 점수는 동의대학교 간호학과의 입학 기준을 충족하는지 확인하기 위해서는 해당 과정의 평균 점수와 표준 편차를 고려해야 합니다.
+현재 제공된 데이터 중에서 간호학과에 대한 정보가 직접적으로 나와 있지 않습니다. 그러나 일반적으로 동의대학교 간호학과의 입학 기준을 확인하기 위해서는 다음과 같은 정보들을 참조해야 합니다:
+1. **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**의 평균과 표준 편차
+2. **영어 등급**의 평균과 표준 편차
+3. **수능 4개 영역 등급**의 평균과 표준 편차
+4. **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**의 평균과 표준 편차
+만약 간호학과에 대한 이러한 정보가 제공되지 않았다면, 동의대학교 전체에서 간호학과의 입학 기준을 확인하거나, 해당 대학의 공식 웹사이트를 참조하는 것이 좋습니다.
+만약 간호학과의 평균 점수가 3.44보다 높고 표준 편차가 크다면, 합격 가능성은 낮아질 수 있습니다. 반대로 평균 점수가 낮거나 표준 편차가 작다면, 합격 가능성은 더 높아질 수 있습니다.
+따라서, 정확한 판단을 위해서는 동의대학교 간호학과의 입학 기준 정보를 확인해야 합니다. 필요하다면, https://ipsi. deu. ac. kr/main. do 웹사이트를 참조하거나 대학에 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 2.52라는 점수가 영어 등급으로 보인다고 언급하고 있지만, 원문에서는 2.52가 간호학과의 평균 등급보다 높은 성적이라고 명시하고 있습니다. 따라서, 응답은 일부 사실을 반영하고 있으나, 정확한 정보 전달이 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 경쟁률과 지원자 수에 대한 정보를 언급하고 있지만, 원문에서 제공된 평균 등급과의 관계를 명확히 연결하지 못하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과에 대한 추가 정보를 제공하고 있으며, 관련된 데이터 항목들을 나열하고 있습니다. 그러나 원문에서 제시된 합격 가능성에 대한 직접적인 답변이 부족하여 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결된 구조를 가지고 있으며, 정보가 잘 정리되어 있습니다. 그러나 원문과의 연결이 명확하지 않아 약간의 일관성이 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원문에서 제시된 구체적인 수치와 비교할 때 정확성이 떨어집니다. 특히, 2.52라는 점수에 대한 해석이 원문과 다르게 나타나 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원문과의 연결이 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 간호학과에 대한 추가 정보를 제공하고 있습니다. 그러나 원문과의 직접적인 연관성이 부족하여 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 다만, 일부 문장이 길어 이해하는 데 시간이 걸릴 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C467" t="n">
+        <v>0.6490249664504082</v>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>2.52라는 점수는 영어 등급으로 보이는데, 동의대학교 간호학과에 대한 정보가 제공되지 않았습니다. 간호학과의 경우 지원 인원이 많고 경쟁률이 높기 때문에, 정확한 합격 가능성을 판단하기 위해서는 해당 과정의 지원자 수와 경쟁률 등을 확인해야 합니다.
+만약 간호학과에 대한 정보가 필요하다면, 다음과 같은 데이터를 참조할 수 있습니다:
+- 모집 인원
+- 지원 인원
+- 경쟁률
+- 충원 합격 (후보순위)
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합
+- 영어 등급
+이 정보들을 통해 간호학과의 입학 경쟁 상황을 파악할 수 있습니다. 만약 이러한 데이터가 필요하다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해 보시는 것을 추천드립니다.
+또한, 정확한 합격 가능성을 판단하기 위해서는 동의대학교 간호학과의 최신 입학 정보와 지원 자격 조건 등을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 평균 등급에 대한 정보와 3.7이라는 점수의 합격 가능성에 대한 언급이 있지만, 2024학년도에 정시모집이 진행되지 않았다는 정보는 원본 텍스트에 포함되어 있지 않습니다. 따라서 일부 사실이 누락되거나 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 정시모집이 진행되지 않았다는 새로운 정보를 추가하여 일관성이 떨어집니다. 원본 텍스트는 정시 등급에 대한 합격 가능성을 언급하고 있으나, 생성된 응답은 정시 지원이 불가능하다고 주장합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 합격 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있지만, 정시모집이 진행되지 않는다는 정보는 원본 텍스트와 관련이 없으므로 약간의 비관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 정시모집이 진행되지 않는다는 정보가 추가되면서 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 3.7이라는 점수에 대한 합격 가능성을 언급하지만, 정시모집이 진행되지 않는다는 정보는 원본 텍스트에 포함되어 있지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 반응하고 있으며, 의미적으로 적절한 정보를 제공합니다. 그러나 정시모집에 대한 언급은 원본 텍스트와의 맥락에서 벗어납니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C468" t="n">
+        <v>0.6731763805884097</v>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>3.7이라는 점수만으로는 간호학과에 정시로 합격할 확률을 정확히 예측하기 어렵습니다. 간호학과의 경쟁률, 모집인원, 지원인원 등을 고려해야 합니다.
+간호학과의 경우, 2024학년도에 정시모집이 진행되지 않았으며, 전형명은 학생부종합(성인학습자전형)으로 변경되었습니다. 따라서 간호학과에 정시로 지원하는 것은 불가능합니다.
+현재 정보를 바탕으로 추정하면, 간호학과의 경쟁률이 높을 것으로 예상되므로 3.7이라는 점수만으로는 합격하기 어려울 수 있습니다. 그러나 최종 합격 여부는 모집인원, 지원인원, 평균점수 등 다양한 요소에 의해 결정됩니다.
+더 자세한 정보를 얻기 위해서는 해당 대학의 입시 홈페이지(https://ipsi. deu. ac. kr/main. do)를 참조하거나 학교 관계자에게 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 지원자의 성적을 비교하는 데 있어 잘못된 정보를 제공합니다. 원본 텍스트에서는 지원자의 성적이 평균보다 높다고 언급했으나, 생성된 응답에서는 지원자의 성적이 평균보다 낮다고 잘못 해석하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 지원자가 간호학과에 합격할 가능성이 높다고 말하는 반면, 생성된 응답은 합격하기 어렵다고 주장합니다. 이로 인해 두 텍스트 간의 정보가 상충합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 원본 텍스트의 핵심 포인트를 잘못 해석하여 잘못된 결론을 도출했습니다. 그럼에도 불구하고, 간호학과의 평균 점수와 관련된 정보를 제공하고 있어 어느 정도의 관련성을 유지하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 수학적 표현이 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보의 흐름은 있지만, 결론이 원본과 상충하여 혼란을 초래합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 지원자의 성적에 대한 해석이 잘못되어 있으며, 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 품질 차원에서 생성된 응답은 낮은 점수를 받습니다. 사실성, 일관성, 정확성에서 큰 문제가 있으며, 이로 인해 전반적인 품질이 저하됩니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락을 잘못 해석하여 부적절한 결론을 도출했습니다. 따라서 의미의 적절성은 다소 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달됩니다. 그러나 수학적 계산 부분이 다소 복잡할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C469" t="n">
+        <v>0.6512572434473729</v>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집에 대한 정보를 바탕으로, 지원자의 성적인 2.58을 평균 점수와 비교해보겠습니다.
+간호학과의 경우, "국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합"의 평균이 318.80이고, 표준 편차는 10.40입니다.
+평균 점수가 318.80이고 표준 편차가 10.40이라는 것은 대부분 지원자의 점수가 이 값에서 ±10.40 범위 내에 위치할 것으로 예상됩니다. 즉, 절대적으로 평균보다 낮은 점수를 받는 학생들도 있을 수 있습니다.
+2.58을 표준 변환 점수로 환산하면 다음과 같습니다:
+\[ Z = \frac{X - \mu}{\sigma} \]
+여기서 \( X = 2.58 \), \( \mu = 318.80 \), \( \sigma = 10.40 \)입니다.
+\[ Z = \frac{2.58 - 318.80}{10.40} \approx -29.76 \]
+이 값은 매우 낮습니다, 표준 편차의 몇 배보다도 더 낮은 점수를 받았다는 것을 의미합니다. 이는 실제 점수가 평균에서 상당히 떨어져 있다는 것을 나타냅니다.
+따라서 2.58이라는 점수로는 동의대학교 간호학과에 정시 전형으로 합격하기 어려울 것으로 보입니다. 하지만 최종 합격 여부는 여러 요인에 따라 결정되므로, 정확한 결과를 확인하려면 대학 입학처에 문의하시는 것이 좋습니다.
+더 자세한 정보나 추가 지원 가능성을 확인하시려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 예비번호 7번에 대한 경쟁률과 평균 점수에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 "예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다"는 중요한 사실을 무시하고 있습니다. 또한, 경쟁률과 평균 점수에 대한 정보는 원본 텍스트와 관련이 없으며, 잘못된 정보로 보입니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 예비번호 7번의 합격 가능성에 대한 원본의 주장을 반박하는 내용을 포함하고 있습니다. 이는 일관성이 부족한 것으로 평가됩니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 예비번호 7번에 대한 추가 정보를 제공하지만, 원본 텍스트의 핵심 주제인 예비 합격 가능성에 대한 직접적인 답변이 부족합니다. 따라서 관련성 점수는 중간 정도로 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트의 주제와 연결되지 않아 논리적인 흐름이 약해 보입니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 예비번호 7번의 합격 가능성에 대한 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 낮게 평가됩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다. 따라서 전반적인 품질 점수는 낮게 평가됩니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 내용이 포함되어 있습니다. 따라서 의미 적합성 점수는 중간 정도로 평가됩니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어졌습니다. 그러나 일부 내용은 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C470" t="n">
+        <v>0.6723206087147716</v>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>7번 예비번호의 경우 경쟁률이 5.33으로 높은 편입니다. 이는 모집 인원 3명에 지원 인원이 16명이므로 각각의 점수가 어느 정도일지 궁금해질 수 있습니다.
+게임공학과의 평균 국어+수학+탐구(2개) 표준 변환 점수 합은 303.05이고, 영어 등급의 평균은 3.25입니다. 이는 경쟁률이 높은 편임을 반영하고 있습니다.
+당신의 예비번호가 7번이라면, 충원된 합격자들(예비번호 1~3)의 점수가 어느 정도였는지 확인해보시고, 자신의 점수와 비교해보세요. 만약 자신의 점수가 충원된 합격자들의 평균 점수보다 높다면 좋은 기회일 수 있습니다.
+만약 자세한 정보가 필요하다면, 해당 대학의 입학처에 문의하시거나, 제공된 데이터를 바탕으로 판단해보시는 것이 좋습니다. 더 궁금하신 사항이 있으시다면 https://ipsi. deu. ac. kr/main. do로 접속하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 점수 4.16이 게임공학과의 평균 등급보다 높다는 점을 언급하며, 합격 가능성이 높다고 설명하고 있습니다. 그러나 모집 인원, 지원 인원, 경쟁률에 대한 정보가 부족하다는 점에서 일부 사실이 누락되었습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 잘 반영하고 있으며, 추가 합격 가능성에 대한 논의도 일관되게 이어집니다. 다만, 모집 인원과 경쟁률에 대한 정보가 없다는 점에서 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 점수와 합격 가능성에 대한 정보를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 정보가 누락되어 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 수능 점수와 관련된 정보는 정확하지만, 모집 인원과 경쟁률에 대한 구체적인 데이터가 부족하여 정확성에서 약간의 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 잘 수행되고 있으며, 전반적으로 높은 품질을 유지하고 있습니다. 그러나 일부 정보의 부족으로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 다만, 일부 정보가 누락되어 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C471" t="n">
+        <v>0.6155376914754901</v>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>4.16이라는 수능 점수를 가지고 동의대학교 게임공학과에 지원하는 경우, 일반적으로는 충분한 경쟁력을 갖추고 있다고 볼 수 있습니다. 하지만 정시 전형으로 지원하려면 해당 학과의 모집 인원과 지원 인원, 그리고 경쟁률을 고려해야 합니다.
+동의대학교 게임공학과의 2024학년도 모집 정보를 확인해보겠습니다:
+- **모집 인원**: (게임공학과에 대한 모집 인원 정보가 제공되지 않았습니다. 이 부분은 동의대학교 웹사이트에서 확인해야 합니다.)
+- **지원 인원**: (지원 인원 정보가 제공되지 않았습니다. 이 부분도 동의대학교 웹사이트에서 확인해야 합니다.)
+- **경쟁률**: (경쟁률 정보가 제공되지 않았습니다. 이 부분도 동의대학교 웹사이트에서 확인해야 합니다.)
+이 정보를 바탕으로 추가 합격 가능성에 대해 판단할 수 있습니다.
+만약 모집 인원이 20명이고 지원 인원이 100명이라면, 경쟁률은 약 5:1입니다. 이 경우 4.16의 점수는 상당히 높은 점수로, 추가 합격 가능성은 높습니다.
+하지만 정확한 판단을 위해서는 동의대학교 게임공학과의 최종 모집 인원과 지원 인원, 그리고 경쟁률을 확인해야 합니다. 이 정보를 바탕으로 더 구체적인 분석이 가능합니다.
+더 자세한 정보를 얻기 위해서는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 동의대학교 게임공학과의 모집 정보를 확인해보시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 경영정보학과의 정시 모집에 대한 구체적인 정보를 제공하지 않고, 제공된 정보만으로는 명확하지 않다고 언급하고 있습니다. 그러나 원본 텍스트에서는 3.75의 성적이 평균 등급보다 높아 합격 가능성이 높다고 명확히 언급하고 있어, 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 경영정보학과의 정시 모집에 대한 긍정적인 가능성을 부정하는 내용이 포함되어 있습니다. 이는 원본 텍스트의 주장을 반박하는 것으로, 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 정시 모집에 대한 정보를 요청하는 내용이 포함되어 있지만, 원본 텍스트의 핵심 내용인 성적 기준에 대한 직접적인 언급이 부족하여 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있으나, 원본 텍스트의 정보와는 다소 동떨어진 내용이 포함되어 있어 일관된 흐름이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 3.75의 성적이 합격 가능성이 높다는 정보를 무시하고 있습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 낮고, 정보의 정확성 및 일관성이 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와는 다소 다르게 해석되고 있으며, 정보의 맥락을 잘 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원본 텍스트와의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C472" t="n">
+        <v>0.5659819652249738</v>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경영정보학과의 정시 모집에 대한 자세한 내용이 명확하지 않습니다. 경영정보학과의 정시 모집에 대한 최신 정보를 확인하기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문하여 공식 안내사항을 확인해보시기 바랍니다. 특히, 성적 기준, 지원 가능한 고교 유형 등 자세한 내용이 포함되어 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 평균 등급과 관련된 정보를 제공하지 않고, 대신 모집요강과 경쟁률에 대한 일반적인 조언을 포함하고 있습니다. 이는 원본 텍스트의 구체적인 사실을 반영하지 않기 때문에 점수가 낮습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부분 일치하지만, 경영정보학과의 평균 등급에 대한 언급이 없고, 대신 일반적인 조언을 제공하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과에 대한 질문에 대한 답변을 제공하고 있지만, 원본 텍스트의 구체적인 데이터와 직접적으로 연결되지 않기 때문에 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 일반적인 조언을 제공하고 있습니다. 이는 정확성 점수를 낮추는 요소입니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 구체적인 사실을 반영하지 않기 때문에 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 반응하고 있으며, 의미적으로 적절한 정보를 제공합니다. 그러나 원본 텍스트의 구체적인 내용과는 다소 거리가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어질 경우 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C473" t="n">
+        <v>0.6994437966416257</v>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경영정보학과에 정시로 최초 등록이 가능한지 확정적으로 답변하기 어렵습니다. 경영정보학과의 모집요강을 확인해야 합니다.
+1. **모집단위와 모집인원**: 경영정보학과의 2024학년도 모집단위와 모집인원을 확인하세요.
+2. **지원 인원 및 경쟁률**: 지원 인원과 경쟁률을 확인하여, 현재의 성적이 경쟁력을 갖추고 있는지 판단하세요.
+3. **최초합격자 정보**: 제공된 최초합격자 정보를 참고하여, 평균 점수와 표준 편차 등을 비교해보세요.
+만약에 경영정보학과가 모집인원이 많고 지원 인원이 적다면, 4.2의 성적은 충분히 경쟁력을 갖추게 될 수 있습니다. 그러나 만약 지원 인원이 많다면, 경쟁률이 높아져서 4.2의 성적이 충분한 경쟁력을 갖추지 못할 수도 있습니다.
+따라서, 정확한 답변을 위해서는 동의대학교의 공식 웹사이트 (https://ipsi. deu.ac.kr/main.do)를 참조하거나, 입학처에 직접 문의하는 것이 가장 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성에 대한 판단이 어렵다고 언급하고 있지만, 원본 텍스트에서 제공된 평균 등급과 비교하여 합격 가능성이 낮다는 명확한 정보를 제공하고 있습니다. 그러나 생성된 응답은 이 정보를 충분히 반영하지 못하고 있어 점수를 낮게 평가했습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부분 일치하지만, 경영정보학과의 평균 등급에 대한 언급이 부족하여 일관성이 떨어집니다. 원본 텍스트의 내용을 완전히 반영하지 못하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있지만, 원본 텍스트의 구체적인 데이터와 비교하는 부분이 부족하여 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있어 점수를 4로 평가했습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원본 텍스트의 핵심 정보를 충분히 반영하지 못해 약간의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 수치와 비교하여 합격 가능성을 판단하는 데 필요한 정보를 충분히 제공하지 않으므로 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락에 적절하게 의미를 전달하고 있지만, 구체적인 수치와 비교하는 부분이 부족하여 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 문장이 복잡하게 느껴질 수 있어 점수를 4로 평가했습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C474" t="n">
+        <v>0.6439449666220541</v>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 동의대학교 경영정보학과 일반학생전형에 대한 정확한 합격 가능성 판단이 어렵습니다. 동의대학교 각 모집단위의 기준 점수와 지원자의 성적을 비교해야 합니다.
+특히, 경영정보학과의 경우 모집 인원, 지원 인원, 경쟁률 등 다양한 요인들이 있습니다. 제공된 데이터는 게임공학과, 영화학과, 패션디자인학과 등의 정보만 포함되어 있어, 경영정보학과에 대한 구체적인 기준 점수를 알 수 없습니다.
+따라서, 정확한 판단을 위해서는 동의대학교의 공식 웹사이트 (https://ipsi. deu. ac. kr/main. do)에서 최신 정보와 기준 점수를 확인하시거나, 대학 입학처에 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 바이오응용공학부의 최초등록자에 대한 성적 기준을 명확히 언급하지 않고, 웹사이트를 참조하라는 내용으로 대체하고 있습니다. 원본 텍스트에서 제공된 정보와는 다소 다르게 해석되고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 완전히 일치하지 않으며, 정시 모집 성적 기준에 대한 정보가 없다고 언급하고 있습니다. 이는 원본 텍스트에서 제시된 합격 가능성과 상충하는 부분이 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 바이오응용공학부의 최초등록자 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있으나, 원본 텍스트의 구체적인 성적 기준을 언급하지 않아 다소 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결되어 있으며, 주제에 대한 일관성을 유지하고 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 성적 기준을 명확히 반영하지 않고, 웹사이트를 참조하라는 내용으로 대체하고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 구체적인 성적 기준에 대한 언급이 부족하여 다소 아쉬운 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트의 정보가 부족하여 완전한 이해를 돕지 못하는 부분이 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C475" t="n">
+        <v>0.7719928167156678</v>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>3.33 정도의 성적이 바이오응용공학부의 최초등록자로 가능한지 확인하기 위해서는 해당 학과의 정시 모집 성적 기준을 알아야 합니다.
+현재 제공된 정보에서는 특정 학과의 정시 모집 성적 기준에 대한 내용이 없습니다. 따라서, 정확한 답변을 드리기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하여 해당 학과의 정시 모집 성적 기준을 확인해 보시기 바랍니다.
+바이오응용공학부의 최초등록자로 가능할지 여부는 해당 학과의 정시 모집 성적 기준에 따라 결정됩니다. 제공된 정보를 바탕으로 판단하기 어렵습니다. 웹사이트에서 최신 정보를 확인하시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 지원할 수 있는 가능성을 언급하고 있지만, 원본 텍스트에서 제시된 평균 등급과 비교했을 때 4.4등급이 낮은 성적이라는 점을 간과하고 있습니다. 또한, 정시모집군에 대한 정보가 불확실하게 제시되어 있어 사실성과 정확성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 지원할 수 있다고 언급하지만, 원본 텍스트의 내용과 상충하는 부분이 있습니다. 원본 텍스트는 4.4등급이 평균보다 낮아 합격 가능성이 낮다고 명시하고 있으나, 생성된 응답은 가능성을 높게 평가하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과 지원에 대한 정보와 조언을 제공하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 정보인 평균 등급에 대한 언급이 부족하여 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 일부 정보가 중복되거나 불필요하게 길어져서 일관성이 약간 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 평균 등급에 대한 정보를 정확히 반영하지 않고 있으며, 4.4등급의 합격 가능성에 대한 평가가 원본 텍스트와 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제에 적합한 의미를 전달하고 있으며, 방사선학과 지원에 대한 조언이 적절합니다. 그러나 원본 텍스트의 핵심 정보를 충분히 반영하지 못한 점이 아쉽습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어져서 다소 복잡하게 느껴질 수 있습니다. 
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C476" t="n">
+        <v>0.5922992886071559</v>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>4.4등급으로 방사선학과에 지원하는 것은 가능하지만, 경쟁률과 모집인원을 고려하면 충분히 확실한 것이 아닙니다. 방사선학과의 경우 정시모집군이 특정되어 있을 수 있으므로, 해당 학과의 정시모집군 정보를 확인해 보세요.
+정시모집군 변경 사항에 따르면, 2024년도에는 방사선학과가 포함되지 않았습니다. 따라서 방사선학과는 일반학생전형을 통해 지원할 수 있습니다. 하지만 방사선학과의 경쟁률이 높아서 4.4등급으로 충분히 합격할 확률은 낮을 수 있습니다.
+추천 드릴 것은, 방사선학과의 정시모집군과 모집인원, 지원 인원 등을 확인하고, 자신의 성적을 평균 등급과 비교하여 경쟁력을 판단하는 것입니다. 또한 다른 학과들도 고려해 보는 것이 좋습니다.
+더 자세한 정보를 얻기 위해서는 https://ipsi. deu. ac. kr/main. do 를 방문하여 확인하시거나, 대학 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 평균 점수와 표준 편차에 대한 정보를 제공하지만, 원본 텍스트의 사실과는 일치하지 않습니다. 원본 텍스트에서는 2.66이라는 점수가 평균보다 높다고 언급하고 있지만, 생성된 응답에서는 이 점수가 낮다고 평가하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 2.66이 평균보다 높다고 말하는 반면, 생성된 응답은 이 점수가 낮다고 주장합니다. 이러한 불일치는 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과에 지원하는 경우에 대한 평가를 다루고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 원본 텍스트의 핵심 정보와는 다소 다른 방향으로 나아가고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보의 흐름은 있지만, 주제의 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 정보를 포함하고 있습니다. 2.66이라는 점수에 대한 평가가 잘못되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트와의 불일치로 인해 일부 내용이 부적절하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C477" t="n">
+        <v>0.6536091206476941</v>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>2.66이라는 점수를 방사선학과에서 정시로 지원하는 경우에 대해 평가해보겠습니다.
+방사선학과의 "국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합"의 평균은 338.76이고, 표준 편차는 5.40입니다. 이 데이터를 바탕으로 2.66이라는 점수가 얼마나 낮은지 확인해보겠습니다.
+표준 편차가 5.40이므로, 평균보다 약 1.38 표준편차 아래에 위치한 것입니다. 이는 상대적으로 매우 낮은 점수를 의미합니다. 경쟁률이 높고 충원 합격 인원도 적은 방사선학과에서 2.66이라는 점수로 지원하는 것은 위험할 수 있습니다.
+따라서, 2.66이라는 점수로는 방사선학과 정시 지원에 성공하기 어렵다고 판단됩니다. 더 높은 점수를 목표로 설정하거나 다른 전형을 고려해보는 것이 좋을 것 같습니다.
+더 자세한 정보나 도움이 필요하시다면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경찰행정학과의 평균 성적과 경쟁률에 대한 정보를 포함하고 있으며, 이는 원본 텍스트와 일치합니다. 그러나 "정확한 답변을 드리기 어렵습니다"라는 문구는 다소 모호하게 느껴질 수 있습니다. 전반적으로 사실에 기반한 정보가 제공되지만, 일부 세부 사항이 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, "정확한 판단이 어렵다"는 주장은 원본 텍스트의 긍정적인 전망과 다소 상충합니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하며, 합격 가능성에 대한 다양한 요소를 고려하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 합격 가능성에 대한 다양한 요소를 제시합니다. 그러나 특정 세부 사항이 부족하여 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 긍정적인 평가를 받습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 합격 가능성에 대한 다양한 요소를 잘 설명하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우나, 일부 문장이 복잡하여 이해하는 데 약간의 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C478" t="n">
+        <v>0.5567026181876639</v>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 정확한 답변을 드리기 어렵습니다. 정시 성적 3.66과 경찰행정학전공 농어촌 전형의 합격 가능성에 대한 판단은 다음과 같은 요소들을 고려해야 합니다:
+1. **학교와 전형별 합격 기준 점수**: 각 대학과 전형별로 정해진 최저 합격 기준 점수가 있습니다. 이 점수를 넘어야 합격이 가능합니다.
+2. **성적 산출 방법**: 제공된 정보에서 수능 성적 산출 방법을 확인할 수 있습니다. 예를 들어, "가군(일반학생전형)"의 경우는 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수로 합산됩니다.
+3. **추천서 및 자기소개서 등의 서류 평가**: 일부 전형에서는 추천서, 자기소개서 등을 통해 지원자의 능력을 평가하기도 합니다.
+4. **면접 결과**: 면접이 포함된 전형의 경우, 면접 성적도 합격 가능성에 영향을 미칩니다.
+제공된 정보만으로는 정확한 판단이 어렵습니다. 해당 대학과 전형별 최저 합격 기준 점수를 확인하고, 수능 성적 산출 방법 등을 다시 한 번 검토해 보시기 바랍니다. 만약 추가적인 도움이 필요하다면, "https://ipsi. deu. ac. kr/main. do" 링크를 통해 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 예비 등록자 선발에 영향을 미치는 여러 요인(수능 성적, 면접 성적, 서류 평가 등)을 언급하고 있지만, 원문에서 제공한 특정 학과 목록과 예비 25번 이상의 합격 가능성에 대한 정보는 누락되어 있습니다. 따라서 일부 사실이 누락되어 있어 점수를 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문에서 언급된 예비 등록자와 관련된 정보와 일치하지만, 원문에서 제공한 특정 학과 목록에 대한 언급이 없으므로 일관성이 떨어집니다. 따라서 점수를 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 예비 등록자 선발에 대한 정보를 제공하며, 질문의 맥락과 관련이 있지만, 원문에서 제공한 특정 학과 목록에 대한 언급이 없으므로 완전한 관련성은 아닙니다. 따라서 점수를 4로 평가합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다. 따라서 점수를 5로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 선발에 영향을 미치는지를 설명하고 있습니다. 그러나 원문과의 연결이 부족하여 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 예비 등록자 선발에 대한 일반적인 정보를 제공하지만, 원문에서 제공한 특정 학과 목록과 예비 25번 이상의 합격 가능성에 대한 정보가 누락되어 있어 정확성이 떨어집니다. 따라서 점수를 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 전반적으로 유용한 정보를 제공하지만, 원문과의 연결이 부족하여 다차원적인 품질이 완벽하지는 않습니다. 따라서 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 질문의 맥락에 적절하게 반응하고 있으며, 예비 등록자 선발에 대한 정보를 제공하고 있습니다. 그러나 원문에서의 특정 정보가 누락되어 있어 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 따라서 점수를 5로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C479" t="n">
+        <v>0.5134486918789054</v>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>25번의 예비 등록자 중에서 어떤 학생이 선발될지는 여러 요인에 따라 달라집니다. 예를 들어, 수능 성적, 면접 성적, 서류 평가 점수 등을 고려할 때 개인의 전반적인 경쟁력이 중요합니다.
+다군 일반학생전형에서는 다음과 같은 절차가 있습니다:
+1. **수능 성적**: 국어, 수학(미적분 또는 기하), 영어, 탐구 등 4개 영역에서 표준점수 및 등급점수를 반영합니다.
+2. **면접 성적**: 개별 면접을 통해 학업역량, 전공적합성 등을 평가받습니다.
+3. **서류 평가**: 학생부 종합평가를 통해 지원자의 학교생활 및 진로 탐색 활동 등을 평가합니다.
+예비 등록자 중에서 선발될 확률은 개인의 성적이 얼마나 높았는지, 그리고 경쟁률이 어느 정도인지에 따라 달라집니다. 예를 들어, 수능 성적과 면접 성적이 우수한 학생이라면 더 높은 가능성은 있을 것입니다.
+더 자세한 정보나 개인의 경쟁력을 분석하고 싶다면, 해당 대학의 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. 또한, "https://ipsi. deu. ac. kr/main. do" 링크를 통해 더 많은 정보를 얻을 수 있습니다.
+이런 점들을 고려하여 자신에게 가장 유리한 경쟁력을 갖추는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1  
+   - 생성된 응답은 동의대학교 법경찰행정학부의 존재를 언급하고 있으나, 원본 텍스트에서는 해당 학부가 존재하지 않는다고 명시하고 있습니다. 또한, 평균 성적에 대한 정보도 원본 텍스트와 일치하지 않으며, 잘못된 수치를 제시하고 있습니다.
+2. Consistency Score (1-5): 1  
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 법경찰행정학부의 존재를 언급하고, 평균 성적에 대한 예측을 제시하는데, 이는 원본 텍스트의 내용과 완전히 모순됩니다.
+3. Relevance Score (1-5): 2  
+   - 생성된 응답은 동의대학교의 입학 관련 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용인 경찰행정학과의 평균 성적에 대한 정보와는 관련이 적습니다. 법경찰행정학부에 대한 잘못된 정보로 인해 relevance가 낮습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련하여 신뢰성이 떨어지기 때문에 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 일관된 구조를 가지고 있으나, 원본 텍스트와의 불일치로 인해 전체적인 논리적 흐름이 약간 손상되었습니다. 그러나 내부적으로는 일관성을 유지하고 있습니다.
+6. Accuracy Score (1-5): 1  
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 법경찰행정학부의 존재와 관련된 정보는 명백한 오류입니다.
+7. Multidimensional Quality Score (1-5): 1  
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 낮은 점수를 받았습니다. 원본 텍스트와의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 포함하고 있습니다. 법경찰행정학부에 대한 언급은 부적절합니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성과 관련하여 신뢰성이 떨어지기 때문에 전체적인 평가에 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C480" t="n">
+        <v>0.6900722066924003</v>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 법경찰행정학부의 정원 내 모집 인원은 40명이며, 나군에서 일반 학생 모집 인원은 7명입니다. 현재 제공된 정보로는 정확한 평균 성적을 예측하기 어렵습니다만, 이전년도와 유사한 상황을 고려하면 다음과 같은 점수대를 참고하실 수 있습니다.
+1. **안정권**: 이전년도의 나군 일반 학생 모집 인원 7명 중에서 가장 낮은 점수대를 기준으로 하면, 평균 성적이 80점 이상이어야 안정적으로 들어갈 수 있을 것입니다.
+2. **문 닫고 들어가기**: 이전년도의 나군 일반 학생 모집 인원 7명 중에서 가장 높은 점수대를 기준으로 하면, 평균 성적이 90점 이상이어야 문을 닫고 들어갈 수 있을 것입니다.
+하지만, 이는 예측이며 실제 입학 경쟁률과 합격선은 정확한 데이터가 나올 때까지 알 수 없습니다. 따라서 최종적인 합격 가능성을 확인하려면 동의대학교 입학처 웹사이트를 참조하거나 직접 문의하는 것이 가장 정확합니다.
+더 자세한 정보는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 아동학과의 평균 산출 등급이 1.21로 언급되었으나, 원본 텍스트에서는 아동학과의 영어 등급 평균이 6.33, 수능 4개 영역 등급 평균이 7.08이라고 명시되어 있습니다. 이로 인해 생성된 응답은 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 제공하고 있으며, 특히 평균 등급에 대한 정보가 상충합니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련이 있으며, 학생의 성적에 대한 평가와 추가 정보 제공을 포함하고 있습니다. 그러나 평균 등급에 대한 잘못된 정보로 인해 일부 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 잘못된 정보로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답에서 제공된 평균 등급 정보가 원본 텍스트와 다르기 때문에 정확성이 낮습니다. 이는 합격 가능성에 대한 잘못된 판단을 초래할 수 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평균 이상의 성과를 보이지만, 사실성과 일관성에서 큰 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 잘못된 정보로 인해 의미 전달이 부정확해질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C481" t="n">
+        <v>0.6936768024372757</v>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과의 경쟁률을 확인해보겠습니다. 제공된 정보에서 보육가정상담학과는 "아동학과"로 변경되었으며, 그 평균 산출 등급은 1.21입니다.
+현재 제시된 학생의 산출 등급이 5.33이고, 이는 동의대학교 아동학과의 평균 산출 등급(1.21)보다 훨씬 높습니다. 따라서, 학생의 성적은 충분히 경쟁력을 갖추고 있습니다.
+하지만, 최종 합격 여부는 단지 성적으로 결정되는 것이 아니라, 지원 인원, 모집 인원 등 여러 요인에 의해 결정됩니다. 따라서, 이 정보만으로는 정확한 결론을 내리기 어렵습니다. 더 자세한 정보를 얻으시려면 동의대학교 입학처 웹사이트(https://ipsi. deu.ac.kr/main.do)를 참조하시거나, 직접 문의하시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 충원 합격 가능성에 대한 정보를 제공하지만, 동점자 처리 기준에 대한 내용은 원본 텍스트에 포함되어 있지 않으며, 이는 사실과 다를 수 있습니다. 또한, 등록금 납부가 최종 합격 여부에 영향을 미친다는 정보는 원본 텍스트에 명시되어 있지 않습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 일부 내용을 반영하고 있지만, 동점자 처리 기준과 같은 추가 정보를 포함하여 원본과 일치하지 않는 부분이 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 예비 12번에 대한 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있지만, 동점자 처리 기준과 같은 추가적인 정보는 질문의 핵심과는 다소 관련이 떨어질 수 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 동점자 처리 기준에 대한 언급이 원본 텍스트와의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 동점자 처리 기준과 등록금 납부에 대한 언급은 원본 텍스트와 일치하지 않으므로 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 사실성과 일관성에서의 부족함이 전체적인 품질을 낮추고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 다소 일치하지만, 동점자 처리 기준과 같은 추가 정보는 원본의 맥락과는 다소 어긋납니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C482" t="n">
+        <v>0.6673132362104655</v>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 보육가정상담 충원 합격 3차에서 예비 12번을 받으셨다면, 합격 가능성은 있습니다. 하지만 최종합격 여부는 여러 요인에 따라 결정되며, 특히 동점자 처리 기준이 중요한 역할을 합니다.
+동의대학교 나군 학생부교과(농어촌학생전형)에서는 동점자 처리 기준으로 다음과 같은 순위가 있습니다:
+1. 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 등급 평균 상위자
+2. 영어교과 전 과목 등급 평균 상위자
+3. 국어교과 전 과목 등급 평균 상위자
+이 기준에 따라 합격 여부가 결정되므로, 예비 12번을 받으셨다면 최종합격 가능성은 있습니다. 하지만 정확한 결과는 합격자 발표일까지 확인해야 합니다.
+추가적으로, 학교 지정은행에서 등록금 납부를 완료하는 것이 중요합니다. 등록금 납부 후 합격 여부가 최종적으로 결정됩니다.
+더 궁금하신 점이 있으시면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 참조하시거나 입학관리팀에 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 4.75라는 점수가 높은 점수라고 언급하고 있지만, 유아교육학과에 대한 정보는 정확하지 않습니다. 유아교육학과의 평균 점수는 4.18로, 4.75로 지원하기 어려울 것이라는 원문 내용과 상충합니다.
+2. Consistency Score (1-5): 3
+   - 응답은 유아교육학과에 대한 정보를 제공하지만, 원문에서 제시된 유아교육학과의 평균 점수와의 일관성이 부족합니다. 유아교육학과에 대한 설명이 원문과 다르게 해석되고 있습니다.
+3. Relevance Score (1-5): 4
+   - 응답은 유아교육학과에 대한 질문에 대해 관련된 정보를 제공하고 있지만, 다른 학과에 대한 언급이 포함되어 있어 약간의 주제 이탈이 있습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽고 이해하기 쉬운 표현을 사용하고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 연결되어 있으며, 각 요소가 자연스럽게 이어집니다. 그러나 유아교육학과에 대한 정보가 원문과 다르게 제시되어 약간의 일관성 문제가 있습니다.
+6. Accuracy Score (1-5): 3
+   - 유아교육학과에 대한 정보가 원문과 다르게 제시되어 있어 정확성이 떨어집니다. 4.75의 성적이 유아교육학과에 지원하기 어려운 점수를 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 응답은 유용한 정보를 제공하지만, 사실성과 일관성에서 문제가 있어 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 유아교육학과에 대한 정보가 원문과 다르게 해석되어 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉬우며, 명확한 표현을 사용하고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C483" t="n">
+        <v>0.812574310463024</v>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>4.75라는 수능 등급은 매우 높은 점수입니다. 현재 제공된 데이터를 바탕으로, 인문사회과학대학의 법학과나 미디어커뮤니케이션학과, 경찰행정학과 등의 모집단위에서 이 성적을 가지고 지원하면 충분히 합격할 가능성이 높습니다.
+유아교육학과는 일반적으로 낮은 수능 등급을 요구하는 학과로 알려져 있습니다. 그러나 유아교육학과의 경우, 입학사정관이 서류와 면접 등을 종합적으로 평가하기 때문에, 4.75라는 높은 수능 점수만으로는 충분히 합격할 수 있는 것은 아닙니다.
+유아교육학과에 지원하려면, 다음과 같은 요소들을 강조하는 것이 중요합니다:
+1. **서류평가 영역**: 창의적 체험활동, 동아리 활동, 진로활동 등에서의 경험을 자세히 기재해야 합니다.
+2. **면접평가 영역**: 지원동기와 학업계획, 학업역량, 전공적합성 등을 잘 설명해야 합니다.
+따라서 4.75라는 높은 수능 점수를 가지고 유아교육학과에 지원하더라도, 서류와 면접에서의 성적이 중요합니다. 자세한 정보는 "https://ipsi. deu. ac. kr/main. do"를 참조하시거나 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 아동학과의 영어 등급 평균과 수능 4개 영역 등급 평균을 잘못 제시하고 있으며, 원본 텍스트의 정보와 일치하지 않습니다. 또한, 보육가정상담학과의 명칭 변경에 대한 정보는 확인되지 않았습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 여러 부분에서 일치하지 않으며, 특히 평균 등급과 관련된 정보에서 불일치가 발생합니다. 이는 일관성을 저해합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용과는 다소 동떨어진 부분이 있습니다. 그러나 여전히 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 정보의 배열이 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 여러 부분에서 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 이는 정확성을 저해합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 정보의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C484" t="n">
+        <v>0.624653347750931</v>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교에서 보육가정상담학과는 "아동학과"로 명칭 변경되었습니다. 아동학과의 경우, 지원 인원이 많고 경쟁률이 높습니다.
+현재 제공된 데이터를 바탕으로 분석해보겠습니다:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균**: 313.00
+- **영어 등급 평균**: 3.80
+- **수능 4개 영역 등급 평균**: 4.35
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균**: 429.60
+당신의 수능 환산등급이 4.16인 경우, 평균보다는 낮지만 아직 경쟁률이 높은 상황에서 유리한 위치에 있습니다.
+- **경쟁률**: 5.75 (2023년)
+- **충원 합격 인원**: 3명
+당신의 환산등급이 평균보다는 낮지만, 경쟁률이 높은 상황에서 충분히 가능성을 가지고 있습니다. 그러나 확실한 것은 아닙니다.
+**추천 사항:**
+1. **자기소개서와 서류 준비**: 서류 반영 비율이 70%로 높으므로, 자기소개서를 잘 작성하고 서류 준비에 신경 써야 합니다.
+2. **면접 준비**: 면접 비중이 30%이므로, 면접에서도 좋은 성적을 받기 위해 충분히 준비해야 합니다.
+**결론:**
+당신의 환산등급은 충분히 합격 가능성은 있으나, 경쟁률이 높아 확실한 것은 아닙니다. 최선을 다해 준비하시면 좋은 결과를 얻으실 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 원문과 상반된 내용을 담고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순되는 정보를 제공하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 소프트웨어융합학과가 아닌 소프트웨어공학부에 대한 정보를 제공하고 있어 관련성이 낮습니다. 그러나 정시모집에 대한 질문과 관련된 정보가 일부 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 오류가 없습니다. 다만, 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 논리적으로 연결되어 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 사실적 불일치로 인해 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 모두 낮은 점수를 기록하고 있어 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 부적절한 정보를 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 문장은 명확하게 작성되어 있어 이해하기는 쉽지만, 내용의 정확성 문제로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C485" t="n">
+        <v>0.4735064906746184</v>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>2024학년도에 ICT융합공과대학의 소프트웨어공학부는 정시모집으로 지원 가능합니다. 해당 학과의 지원자들의 수능 4개 영역 등급의 평균은 4.12로, 표준 편차는 0.32입니다.
+따라서, 소프트웨어공학부에 정시로 들어가기 위해서는 대략적으로 4.12 정도의 수능 4개 영역 등급을 받아야 합니다. 하지만 경쟁률이 높아 평균 이상의 점수를 받은 지원자들이 선발될 가능성이 있으므로, 조금 더 높은 수준의 점수를 받는 것이 좋습니다.
+더 자세한 정보나 추가적인 질문이 있다면, https://ipsi. deu. ac. kr/main. do 에 접속하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어융합학과의 평가 방식에 대한 정보를 잘 반영하고 있으며, 면접과 서류 평가의 중요성을 강조하고 있습니다. 그러나 원문에서 언급된 "학생부 교과성적"에 대한 언급이 부족하여 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 평가 요소를 설명하고 있으며, 면접과 서류 평가의 중요성을 잘 연결하고 있습니다. 다만, 원문에서 명시된 "학생부 교과성적"에 대한 언급이 없어서 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제시된 주제와 관련이 깊으며, 면접과 서류 평가에 대한 구체적인 정보를 제공합니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 약간의 정보 누락으로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, "학생부 교과성적"에 대한 언급이 없어서 정확성에서 약간의 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 정보 누락으로 인해 완전한 점수는 아닙니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하며, 주제에 적합한 내용을 담고 있습니다. 그러나 약간의 정보 누락이 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C486" t="n">
+        <v>0.6323331881901672</v>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 소프트웨어융합학과의 면접 점수와 세특(서류평가)를 모두 중요하게 보게 됩니다. 특히, 이 두 가지 평가 요소는 합격 여부에 큰 영향을 미치므로 각각 잘 준비하는 것이 좋습니다.
+면접에서는 지원동기, 학업계획, 전공적합성 등에 대한 답변이 주요합니다. 면접 질문 공통문항을 참고하여 답변 내용을 구체적으로 준비해보세요. 또한, 자신의 진로와 전공과의 관련성을 잘 설명하는 것이 중요합니다.
+서류 평가는 학교생활기록부를 기반으로 합니다. 이에 대한 세특 내용은 지원동기와 학업계획, 전공적합성 등에 대한 서술을 포함해야 하며, 실제 경험과 성장과정을 구체적으로 설명하는 것이 중요합니다.
+따로 준비해야 하는 서류는 다음과 같습니다:
+1. 고교 학교생활기록부 (고교 졸업(예정)자)
+2. 검정고시 출신자의 경우 검정고시 합격증
+3. 기타 필요한 서류 (면접 시 제출서류 진위 여부를 확인하기 위해 작성된 면접질문지)
+이러한 준비를 통해 나군 학생부종합(조기취업형계약학과전형)의 면접평가와 세특 평가에서 좋은 결과를 얻을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 최초합격자 평균 성적에 대한 정보를 잘못 전달하고 있습니다. 원문에서는 4.08의 성적이 최초합격자의 평균 등급보다 약간 높은 수준이라고 언급했지만, 생성된 응답에서는 4.08이 매우 낮다고 잘못 해석하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문에서는 4.08의 성적이 최초합격 가능성이 있다고 언급했으나, 생성된 응답에서는 가능성이 매우 낮다고 주장하고 있습니다. 이는 서로 모순되는 정보입니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부에 대한 질문에 답변하고 있으며, 관련된 정보를 제공하고 있습니다. 그러나 중어중국학과에 대한 언급은 질문과 직접적인 관련이 없으므로 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달되고 있습니다. 그러나 원문과의 불일치로 인해 전체적인 일관성에 영향을 미치고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 다르게 해석하고 있으며, 잘못된 정보를 포함하고 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 불일치로 인해 일부 내용이 부적절하게 해석되고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C487" t="n">
+        <v>0.8104148943182727</v>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 인문사회과학대학 중어중국학과의 경우, 지원자의 수능 4개 영역 등급 평균이 4.08입니다. 이는 충원 합격자들의 수능 4개 영역 등급 평균(4.65)보다 낮습니다.
+따라서, 정시 성적이 4.08인 경우 동의대학교 소프트웨어공학부 최초합격 가능성은 매우 낮다고 볼 수 있습니다. 하지만, 이는 단순히 수능 점수만을 기준으로 한 것이므로, 다른 요소들(예: 학생부 종합 평가 등)이 반영되는 경기실적우수자전형이나 조기취업형계약학과전형 등의 전형에서 가능성을 살펴볼 수 있습니다.
+더 자세한 정보를 얻으시려면, https://ipsi. deu. ac. kr/main. do 를 참조하시거나 동의대학교 입학처에 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보를 제공하지 않고, 대신 소프트웨어공학부의 영어 등급 평균과 표준 편차에 대한 정보를 언급하고 있습니다. 이는 원본 텍스트와 관련이 없으며, 잘못된 정보로 간주됩니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 소프트웨어융합학과에 대한 정보 대신 소프트웨어공학부에 대한 정보를 제공하고 있습니다. 이는 일관성이 부족한 것으로 평가됩니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 적으며, 소프트웨어융합학과의 정시 모집에 대한 질문에 대한 적절한 답변이 아닙니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 적절성에 비해 문장 구조가 다소 복잡할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 일관성이 부족합니다. 주제가 일관되지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 소프트웨어융합학과에 대한 정보가 아닌 소프트웨어공학부에 대한 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성에서 낮은 점수를 받았으며, 이로 인해 전체적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보를 제공합니다. 따라서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있어 이해하기는 쉽지만, 내용의 적절성 부족으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C488" t="n">
+        <v>0.5468910005380795</v>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부에서 영어 등급의 평균이 3.30이며, 표준 편차가 0.82입니다. 이 정보만으로는 정확한 판단을 내리기 어렵습니다. 하지만 평균 5등급으로 지원하는 것은 경쟁률이 높은 상황에서 어려울 수 있습니다.
+평균 3.30에 비해 5등급은 상당히 낮은 등급입니다. 이는 표준 편차를 고려할 때, 평균보다 크게 벗어난 점수로 볼 수 있습니다. 따라서, 평균 5등급으로 지원하는 것은 경쟁률이 높고 지원자가 많은 상황에서 어려울 가능성이 큽니다.
+만약에 정확한 판단을 내리기 위해서는 더 많은 정보를 고려해야 합니다. 예를 들어, 지원자의 전체 점수나 다른 과목의 성적, 그리고 경쟁률 등이 중요합니다. 만약 이 정보가 부족하다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트에서 더 자세한 정보를 확인할 수 있습니다.
+따라서, 평균 5등급으로 지원하는 것은 가능하지만, 경쟁률이 높고 지원자가 많은 상황에서는 어려울 것으로 예상됩니다.</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교 신소재공학과에 대한 정보를 제공하지 않고, 제공된 데이터에서 확인할 수 없다고 주장하고 있습니다. 그러나 원본 텍스트에서는 귀하의 성적이 평균 등급보다 높다고 명시하고 있으며, 합격 가능성이 높다고 판단하고 있습니다. 따라서 사실과 일치하지 않는 부분이 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 원본에서 제공된 정보에 대한 반대되는 주장을 하고 있습니다. 원본 텍스트는 합격 가능성이 높다고 언급하고 있지만, 생성된 응답은 그 정보를 부정하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 동의대학교 신소재공학과에 대한 정보를 요청하는 질문에 대한 답변으로는 관련성이 있지만, 원본 텍스트의 핵심 내용을 무시하고 있습니다. 따라서 관련성 점수는 중간 정도로 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 따라서 유창성 점수는 높게 평가됩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성은 떨어집니다. 따라서 중간 정도의 점수를 부여합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 귀하의 성적에 대한 정확한 정보를 제공하지 않고 있습니다. 따라서 정확성 점수는 낮게 평가됩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았기 때문에 전반적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락과는 다소 어긋나 있습니다. 따라서 중간 정도의 점수를 부여합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 명확하고 이해하기 쉬운 표현을 사용하고 있습니다. 따라서 이해 가능성 점수는 높게 평가됩니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C489" t="n">
+        <v>0.5706657323884591</v>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과에 대한 정보는 제공된 데이터에서 확인할 수 없습니다. 해당 학과의 모집요강이나 전형방법, 경쟁률 등을 파악하기 위해서는 동의대학교의 공식 웹사이트를 참조하시거나, 입시 관련 자문을 받으시는 것이 좋습니다.
+자세한 정보를 얻기 위해 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 이동하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 수능 일반학생전형에서 자기소개서가 필요 없다는 사실을 언급하고 있지만, 자기소개서를 제출하면 더 나은 평가를 받을 수 있다는 추가 정보는 원본 텍스트와 일치하지 않으며, 다소 혼란을 줄 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 원본 텍스트의 주장을 반영하고 있지만, 자기소개서 제출의 이점에 대한 언급이 원본의 명확한 주장을 약간 모호하게 만듭니다. 따라서 일관성이 떨어진다고 평가할 수 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 자기소개서의 중요성과 작성 방법에 대한 추가 정보는 원본 텍스트의 핵심 질문과는 다소 벗어난 내용입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 연결되어 있지만, 자기소개서 제출의 이점에 대한 언급이 원본 텍스트의 주제와 완전히 일치하지 않아 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 응답은 원본 텍스트의 사실을 반영하고 있지만, 자기소개서 제출의 이점에 대한 정보는 정확하지 않거나 혼란을 줄 수 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 응답이 적절하지만, 사실성과 일관성에서 약간의 문제가 있어 전반적인 품질이 떨어진다고 평가할 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 응답의 의미는 원본 텍스트와 관련이 있지만, 자기소개서 제출의 이점에 대한 언급이 원본의 맥락과 다소 어긋나 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 추가 정보가 혼란을 줄 수 있어 완벽한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C490" t="n">
+        <v>0.5270397298749511</v>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 한국사와 실기/실적에 대한 내용이 주로 반영되는 &lt;가&gt;군과 &lt;나&gt;군의 수능 일반학생전형에서는 기본적으로 자기소개서 작성은 필요하지 않습니다. 하지만, 자기소개서를 제출하면 더 나은 평가를 받을 수 있는 기회가 될 수 있으므로, 자신이 준비할 수 있다면 제출하는 것이 좋습니다.
+자기소개서의 중요성과 작성 방법에 대해 자세히 알고 싶다면, [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 참조해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 일부 사실을 포함하고 있지만, 수능 4개 영역 등급 평균이 4.35와 5.05라는 정보는 원본 텍스트에 명시된 내용과 일치하지 않으며, 이는 잘못된 정보입니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 일부 내용을 반영하고 있지만, 수능 등급 평균에 대한 정보가 다르기 때문에 일관성이 떨어집니다. 따라서 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 수능 정시 모집에 대한 정보와 추가 모집 가능성에 대해 잘 설명하고 있습니다. 따라서 관련성 점수는 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다. 따라서 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 그러나 일부 부분에서 더 명확한 연결이 필요할 수 있습니다. 따라서 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 수능 등급 평균에 대한 잘못된 정보가 포함되어 있어 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 관련성, 유창성, 일관성 측면에서 긍정적인 평가를 받습니다. 그러나 사실성과 정확성에서의 문제로 인해 점수는 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 따라서 의미 적합성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 혼란이 있을 수 있습니다. 따라서 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C491" t="n">
+        <v>0.8072595436624376</v>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 수능 정시 모집단위별 경쟁률과 충원 합격자 수를 확인해보겠습니다.
+1. **인문사회과학대학**의 경우, 수능 4개 영역 등급 평균이 4.35로, 지원자의 수능 점수가 4.5라면 상당히 높은 점수입니다. 이는 경쟁률이 높은 모집단위에서도 충원 합격 가능성에 유리합니다.
+2. **상경대학**의 경우, 평균 수능 등급이 5.05로 매우 높습니다. 하지만 지원자의 수능 점수가 4.5라면 경쟁률이 낮은 모집단위에서 충원 합격 가능성에 유리할 것입니다.
+3. **모집단위별 지원자 수와 경쟁률**을 고려하면, 수능 등급이 높다면 추가모집에서도 충원 합격 가능성이 있습니다. 하지만 확실한 것은 아니므로, 각 모집단위의 경쟁률과 지원자의 수를 정확히 확인해야 합니다.
+4. **성적 산출 예시**와 **수능 영어 등급에 따른 점수**를 참고하여, 지원자의 성적이 충원 합격 기준을 넘는다면 추가모집에서도 충원 합격 가능성은 있습니다.
+따라서, 수능 4개 영역 등급이 4.5라면 추가모집에서도 충원 합격 가능성이 있지만, 확실한 것은 아니므로 각 모집단위의 상세 정보를 확인하시기 바랍니다. 자세한 내용은 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학부에 대한 구체적인 정보를 제공하지 않으며, 원본 텍스트에서 언급된 평균 등급에 대한 내용을 누락하고 있습니다. 그러나, 신소재공학부의 수능 최저 등급을 확인해야 한다는 점은 원본 텍스트와 일치합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 신소재공학부에 대한 구체적인 데이터가 없다고 언급함으로써 원본 텍스트의 내용을 완전히 반영하지 못하고 있습니다. 따라서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학부에 대한 정보를 요청하는 질문에 대해 관련된 정보를 제공하고 있으며, 추가적인 정보 출처를 안내하고 있습니다. 그러나 원본 텍스트의 구체적인 수치와 정보를 포함하지 않아 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학부에 대한 구체적인 정보를 제공하지 않으며, 원본 텍스트의 평균 등급에 대한 내용을 누락하고 있습니다. 따라서 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 반응하고 있으며, 추가적인 정보 출처를 제공하는 등 의미적으로 적절합니다. 그러나 원본 텍스트의 구체적인 내용을 포함하지 않아 약간의 의미적 일관성이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 다만, 원본 텍스트의 구체적인 수치가 누락되어 있어 완전한 이해를 돕지 못할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C492" t="n">
+        <v>0.6921089255673951</v>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 인문사회과학대학의 학과들에 대한 수능 성적 평균 및 경쟁률 등의 데이터가 포함되어 있지만, 신소재공학부에 대한 특정한 정보는 없습니다. 정시 모집에서 신소재공학부를 지원하려면 해당 학과의 수능 최저 등급을 확인해야 합니다.
+더 자세한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트 (https://ipsi. deu. ac. kr/main. do)를 방문하여 정시 모집의 상세 조건을 확인하시거나, 학교 관계자에게 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 작년 신소재공학과의 평균 점수에 대한 정보를 제공하지만, "약간 높아졌을 수 있습니다"라는 표현은 불확실성을 내포하고 있어 원본 텍스트의 명확한 사실과는 다소 차이가 있습니다. 원본 텍스트는 378.15점이라는 구체적인 수치를 제공하고, 447점이 훨씬 높다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있지만, "작년에 비해 약간 높아졌을 수 있습니다"라는 표현은 원본의 확정적인 정보와 일치하지 않습니다. 원본 텍스트는 447점이 평균 점수보다 훨씬 높다고 명확히 언급하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 신소재공학과의 합격 가능성에 대한 질문에 적절히 답변하고 있습니다. 또한, 추가적인 정보 제공을 위한 웹사이트 링크도 포함되어 있어 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 문장에서 불확실성을 표현하는 부분이 있어 완전한 일관성은 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 일부 반영하고 있지만, "약간 높아졌을 수 있습니다"라는 표현은 원본의 명확한 사실과는 다소 차이가 있습니다. 원본 텍스트는 447점이 평균 점수보다 훨씬 높다고 명확히 언급하고 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 관련성과 유창성에서 강점을 보입니다. 그러나 사실성과 일관성에서 다소 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있습니다. 그러나 불확실성을 내포한 표현이 있어 완전한 적합성은 떨어질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 불확실한 표현이 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C493" t="n">
+        <v>0.7745400648657879</v>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 신소재공학과의 최종 평균 점수가 작년에 비해 약간 높아졌을 수 있습니다. 하지만 표준점수 변환 시스템은 개인의 성적을 대학별로 일정한 기준으로 환산하므로, 작년보다 1점 정도 높아진 것은 표준점수가 변동되었거나, 지원자의 성적이 약간 다르게 평가된 결과일 수 있습니다.
+현재 제공된 데이터를 바탕으로 예측을 하면, 작년에 비해 약간 높은 점수로 환산되더라도 충분히 가능성이 있을 것으로 보입니다. 하지만 확실한 것은 아니므로, 정확한 정보는 동의대학교 입학처 웹사이트 (https://ipsi. deu.ac.kr/main.do)를 통해 확인하시거나, 직접 입학처에 문의하시는 것이 가장 정확할 것입니다.
+또한, 경쟁률과 모집인원, 지원인원 등을 고려하여 최종 합격 가능성을 판단하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 신소재공학부의 합격 가능성에 대한 정보를 제공하지만, 원본 텍스트에서 제시된 평균 성적과 비교하여 귀하의 성적이 다소 높다고 언급한 부분과 상충합니다. 또한, "최대선발 가능 인원이 4 이내"라는 정보는 원본 텍스트에 포함되어 있지 않으며, 이는 잘못된 정보입니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일관성이 부족합니다. 원본 텍스트는 귀하의 성적이 평균 성적과 비교했을 때 합격 가능성이 높다고 언급했으나, 생성된 응답은 귀하의 성적이 신소재공학과에 붙기 어려울 것이라고 주장합니다. 이는 서로 모순되는 정보입니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 원본 텍스트에서 제공된 구체적인 데이터와 비교하여 귀하의 성적에 대한 분석이 부족합니다. 그러나 전반적으로 관련된 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장은 다소 복잡하게 표현되어 있어 약간의 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 다소 부족합니다. 특히, 귀하의 성적에 대한 결론이 원본 텍스트의 정보와 일치하지 않아 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많습니다. 특히, 합격 가능성에 대한 예측이 원본 텍스트의 데이터와 상충합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 이는 전체적인 품질에 부정적인 영향을 미칩니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 다소 일치하지만, 잘못된 정보가 포함되어 있어 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 일부 내용이 모호하게 표현되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C494" t="n">
+        <v>0.5231830469328396</v>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>4.3 등급대의 성적이 4.1~4.2 정도로 산출된다면, 신소재공학과의 경우 최대선발 가능 인원이 4 이내라는 점을 고려하면 경쟁률이 매우 높습니다. 현재 제공된 정보만으로는 정확한 확률을 예측하기 어렵지만, 경쟁률이 높은 만큼 충분히 낮은 등급의 학생들이 선발될 가능성이 적어 보입니다.
+따라서, 4.1~4.2 정도의 성적만으로는 신소재공학과에 붙기 어려울 것으로 예상됩니다. 하지만 최종 결정을 내리기 위해서는 해당 대학에서 제공하는 자세한 정보와 전형 기준 등을 확인해보시는 것이 좋습니다.
+더 정확한 판단을 위해, 관련 웹사이트인 "https://ipsi. deu. ac. kr/main. do"를 방문하여 공식 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적에 대한 정확한 정보를 제공하지 않고 있으며, 제시된 성적 범위는 원본 텍스트의 정보와 일치하지 않습니다. 특히, 평균 점수와 표준 편차가 다르게 제시되어 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 서로 다른 성적 범위를 제시하고 있습니다. 이는 일관성이 부족하다는 것을 의미합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 수능 일반학생전형에 대한 정보를 제공하고 있으나, 원본 텍스트의 구체적인 성적 정보를 무시하고 있습니다. 따라서 관련성은 있지만, 완전하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다르며, 제공된 성적 범위가 정확하지 않습니다. 이는 정확성 점수를 낮추는 요소입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 구체적인 정보를 반영하지 않아 다소 부적절한 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C495" t="n">
+        <v>0.7957293805240923</v>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형에 대한 정확한 성적이 제공되지 않았습니다. 하지만, 수능 점수와 학생부 교과성적 등을 종합적으로 평가하는 전형임을 고려하면, 다음과 같은 성적 범위를 참고하실 수 있습니다:
+1. **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 419.33, 표준 편차 9.73
+2. **영어 등급**: 평균 4.08, 표준 편차 0.86
+이러한 성적 범위를 참고하시고, 자신의 실력에 맞는 전형을 선택하시는 것이 좋습니다. 더 자세한 정보나 지원 절차가 궁금하시다면, 동의대학교의 공식 웹사이트 (https://ipsi. deu. ac. kr/main. do)에서 확인해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 동의대학교의 정시 성적에 대한 정보를 제공하고 있지만, 특정 학과의 평균 점수와 표준 편차에 대한 정보가 정확하지 않거나 원본 텍스트와 일치하지 않습니다. 예를 들어, '방사선학과'의 평균 점수와 표준 편차는 원본에 명시되어 있지 않으며, 이는 잘못된 정보입니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 특정 학과에 대한 정보가 다르기 때문에 일관성이 떨어집니다. 특히, '방사선학과'와 '한의예과'에 대한 정보는 원본 텍스트와 일치하지 않습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 5.27 성적에 대한 지원 가능성에 대한 질문에 적절하게 답변하고 있으며, 관련된 정보를 제공하고 있습니다. 그러나 원본 텍스트의 구체적인 학과 정보와 비교할 때 일부 정보가 누락되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 특정 세부 사항에서 일관성이 부족하여 약간의 혼란을 초래할 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 특정 학과의 평균 점수와 표준 편차에 대한 정보가 잘못되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 유용한 정보를 제공하지만, 사실성과 일관성에서 부족함이 있어 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 그러나 일부 세부 사항에서 혼란을 줄 수 있는 요소가 있어 약간의 개선이 필요합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C496" t="n">
+        <v>0.6683083513197475</v>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>5.27이라는 성적을 가지고 동의대학교의 정시 모집에 지원 가능할지는 모집단위별로 다릅니다. 각 모집단위의 경쟁률과 평균 점수를 확인해야 합니다.
+예를 들어, 의료보건생활대학의 '방사선학과'는 평균 점수가 463.36이고 표준 편차가 2.74입니다. 이와 비교해 볼 때, 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합이 5.27이라면 경쟁률과 평균 점수를 고려할 때 충분히 지원 가능성이 있습니다.
+반대로, 한의과대학의 '한의예과(수학&lt;미적분/기하&gt;)'는 평균 점수가 538.33이고 표준 편차가 0.93입니다. 이 경우 5.27이라는 점수로는 경쟁이 매우 치열할 것입니다.
+따라서, 정확한 판단을 위해서는 각 모집단위의 평균 점수와 표준 편차를 확인하시고, 지원 가능한 모집단위를 선정하는 것이 좋습니다. 더 자세한 정보를 얻기 위해서는 https://ipsi. deu. ac. kr/main. do 를 참조해 보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답에서 제시된 2024학년도 동의대학교 소프트웨어공학과의 수능 4개 영역 등급 평균이 5.04라는 정보는 사실과 다릅니다. 원본 텍스트에 따르면, 소프트웨어공학부의 수능 4개 영역 등급 평균은 4.49입니다. 따라서, 생성된 응답은 여러 가지 사실적 오류를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 원본 텍스트는 4.2의 성적이 평균보다 높다고 언급하고 있지만, 생성된 응답은 4.2가 평균보다 낮다고 주장합니다. 이러한 모순으로 인해 일관성이 매우 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 합격 가능성에 대한 여러 요인을 언급하며, 원본 텍스트의 주제와 관련이 있습니다. 그러나, 잘못된 정보로 인해 일부 관련성이 떨어질 수 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 부분이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 따라서, 응답의 일관성은 중간 정도입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 특히, 평균 등급에 대한 잘못된 수치가 포함되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 큰 문제를 보였으나, 유창성과 관련성에서 다소 긍정적인 요소가 있었습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않은 부분이 있습니다. 따라서, 의미적 적절성은 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C497" t="n">
+        <v>0.7151399749356824</v>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학과의 수능 4개 영역 등급 평균은 5.04입니다. 현재 제시된 성적(4.2)은 이 평균보다 낮습니다.
+하지만 합격 가능성은 여러 요인에 따라 달라질 수 있습니다:
+1. 지원 인원과 모집 인원의 비율
+2. 경쟁률
+3. 전형요소 반영비율
+현재 정보로는 정확한 합격 확률을 예측하기 어렵습니다. 하지만, 평균보다 낮은 성적임에도 불구하고 합격 가능성은 존재할 수 있습니다.
+더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트(https://ipsi. deu.ac.kr/main.do)를 참조하거나 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 화학환경공학부의 평균 등급과 정시 등급에 대한 정보를 포함하고 있으며, 3.92라는 점수가 합격 가능성이 높다는 점을 언급하고 있습니다. 그러나, 구체적인 성적 산출 방법에 대한 정보가 부족하여 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되며, 화학환경공학부의 성적 산출 방법에 대한 추가 정보를 제공합니다. 그러나, 원본 텍스트의 특정 세부사항을 완전히 반영하지는 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 질문에 대한 직접적인 답변을 제공합니다. 화학환경공학부의 성적 산출 방법과 관련된 정보가 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 문장 간의 연결이 조금 더 매끄럽게 이루어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 성적 산출 방법에 대한 구체적인 정보가 부족하여 약간의 정확성 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 세부사항에서 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 표현에서 약간의 부적절함이 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C498" t="n">
+        <v>0.7096693102315196</v>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>东义大食的定期考试成绩计算出3.92，如果是化学环境工程学部的一般学生类型是否可以呢？
+화학환경공학부의 경우, 정시 모집에서는 특정 학과에 대한 전형 성적 산출 방법이 적용됩니다. 동의대학교 화학환경공학부의 정시 모집성적 산출방법을 확인해야 합니다.
+일반적으로, 동의대학교는 다음과 같은 방식으로 성적을 산출합니다:
+- 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+만약 이 방법에 따라 3.92라는 점수가 충분하다면, 화학환경공학부의 일반학생전형에 지원할 수 있습니다.
+하지만 정확한 정보를 얻기 위해서는 동의대학교 공과대학 화학환경공학부의 정시 모집성적 산출방법을 확인해야 합니다. 만약 해당 정보가 제공되지 않으면, https://ipsi. deu. ac. kr/main. do 를 참조하여 최신 정보를 얻으시기 바랍니다.
+따라서, 동의대학교 화학환경공학부의 정시 모집성적 산출방법을 확인하시고, 해당 방식에 따라 3.92가 충분한 점수인지 판단해보세요.</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교 화학환경공학부의 합격 가능성에 대한 정보를 제공하는 대신, 추가적인 데이터가 필요하다고 언급하고 있습니다. 이는 원본 텍스트에서 제공된 정보와 상충하며, 원본 텍스트의 결론인 "합격 가능성이 높다"는 내용을 무시하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 결론과 일치하지 않으며, 합격 가능성에 대한 판단을 부정적으로 표현하고 있습니다. 이는 원본 텍스트와의 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교 화학환경공학부에 대한 질문에 답변하고 있으나, 원본 텍스트의 핵심 정보인 합격 가능성에 대한 직접적인 언급이 부족합니다. 그러나 관련된 정보와 추가적인 데이터 요청은 포함되어 있어 어느 정도 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트의 결론과는 다른 방향으로 전개되고 있어 일관된 흐름이 부족합니다. 정보가 분산되어 있어 논리적 연결이 약합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있습니다. 원본 텍스트에서 제시된 합격 가능성에 대한 판단을 부정하고, 추가적인 데이터가 필요하다고 주장하는 것은 사실과 다릅니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 일관성, 정확성, 사실성에서 낮은 점수를 받았습니다. 따라서 다차원적 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 다소 다르게 해석되고 있으며, 합격 가능성에 대한 긍정적인 결론을 무시하고 있습니다. 그러나 관련된 정보는 포함되어 있어 의미적으로 적절한 부분도 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C499" t="n">
+        <v>0.6680116157916006</v>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.25인데 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능 여부를 정확히 판단하기 어렵습니다. 동의대학교 화학환경공학부의 모집단위와 지원 인원, 경쟁률 등의 자세한 데이터가 필요합니다.
+만약 동의대학교 화학환경공학부에 대한 자세한 정보가 있다면 해당 정보를 바탕으로 답변을 드릴 수 있습니다. 그렇지 않다면, 제공된 데이터에서 동일한 대학과 학과의 경쟁률 등을 참고할 수 있지만, 정확한 판단을 위해서는 공식 웹사이트 (https://ipsi. deu. ac. kr/main. do)를 통해 최신 정보를 확인하는 것이 좋습니다.
+또한, 수능 점수 4.25는 평균치인 4.12보다 약간 높은 점수이므로 경쟁률을 고려할 때 합격 가능성은 있으나, 정확한 판단을 위해서는 해당 대학의 최신 모집 정보를 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 4.2라는 점수가 수능 4개 영역 등급의 평균치인 4.12보다 약간 높다고 언급하고 있지만, 실제 평균치와 비교할 때 정확한 수치가 다릅니다. 또한, 수능 4개 영역 등급의 평균치인 4.35와 비교하여 낮다고 언급했으나, 이는 원본 텍스트에 명시된 정보와 일치하지 않습니다. 따라서 일부 사실이 부정확합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 경쟁률과 충원 합격 인원에 대한 정보는 원본 텍스트에 포함되어 있지 않습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 질문에 대한 답변으로서 관련성이 높지만, 원본 텍스트의 주요 정보와는 다소 차이가 있습니다. 경쟁률과 충원 합격 인원에 대한 정보는 질문의 핵심과는 직접적인 관련이 없습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 일부 정보가 원본 텍스트와 일치하지 않아 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 평균치와 관련된 수치가 부정확하여 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 사실성과 정확성에서의 문제로 인해 점수가 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 질문의 맥락에 적절하게 의미를 전달하고 있으며, 전반적으로 적절한 내용입니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 명확하고 이해하기 쉬운 구조를 가지고 있으며, 정보가 잘 전달됩니다. 다만, 일부 복잡한 문장은 이해를 어렵게 할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C500" t="n">
+        <v>0.6587987284859372</v>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 수능 4개 영역 등급의 평균치인 4.12보다 약간 높습니다. 그러나 영화학과에 대한 지원자들의 경쟁률과 충원 합격 인원을 고려하면, 정확한 예측은 어렵습니다.
+영화학과의 경우:
+- 모집 인원: 5명
+- 지원 인원: 25명
+- 경쟁률: 5.00
+- 충원 합격 (후보순위): 2명
+이러한 상황에서, 4.2라는 점수는 평균치보다 약간 높지만, 경쟁률이 높아서 단순히 등급만으로 합격 여부를 판단하기 어렵습니다. 수능 4개 영역 등급의 평균치인 4.35와 비교하면 약간 낮은 편입니다.
+따라서, 다음과 같은 요소들을 고려해야 합니다:
+1. 지원자의 전체 성적 경향
+2. 다른 지원자들의 점수 분포
+3. 입학사정관의 평가
+이러한 정보를 바탕으로, 4.2라는 점수는 충분히 합격 가능성은 있으나, 확실하지 않습니다. 정확한 결과는 입학사정관의 판단에 따라 결정될 것입니다.
+추천되는 조치:
+1. 지원서와 서류를 철저히 준비하고 제출합니다.
+2. 면접에서 자신감을 가지고 자신의 장점을 잘 표현합니다.
+3. 학교생활기록부와 자기소개서 등에서 영화 관련 활동과 경험을 강조합니다.
+더 자세한 정보나 도움이 필요하시다면, "https://ipsi. deu. ac. kr/main. do"를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 면접 절차를 정확하게 반영하고 있으며, 추가된 문장도 원본의 내용을 왜곡하지 않고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 일치합니다. 추가된 문장도 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 매우 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트와의 연결이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C501" t="n">
+        <v>0.9601999933161308</v>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실
+이 절차를 따르며 면접이 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
